--- a/数字逻辑与数字系统设计/6-2 运动码表系统设计/同步时序电路状态转换表-3位.xlsx
+++ b/数字逻辑与数字系统设计/6-2 运动码表系统设计/同步时序电路状态转换表-3位.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franky/数电实验/数字逻辑与数字系统设计/6-2 运动码表系统设计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0946936-C930-4F43-85F9-1FE22F689B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C134878-EF8E-714D-8562-C1F2821A5A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -870,28 +870,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -972,7 +972,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1017,25 +1017,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1058,6 +1058,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1112,12 +1118,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1791,7 +1791,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
+      <selection pane="bottomLeft" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1808,30 +1808,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82" t="s">
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="85" t="s">
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="87"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="89"/>
     </row>
     <row r="2" spans="1:18" ht="30">
       <c r="A2" s="28" t="s">
@@ -1849,19 +1849,19 @@
       <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="99" t="s">
+      <c r="G2" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="99" t="s">
+      <c r="H2" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="81" t="s">
         <v>38</v>
       </c>
       <c r="K2" s="31"/>
@@ -2007,7 +2007,9 @@
       <c r="G5" s="48">
         <v>0</v>
       </c>
-      <c r="H5" s="48"/>
+      <c r="H5" s="48">
+        <v>0</v>
+      </c>
       <c r="I5" s="48">
         <v>0</v>
       </c>
@@ -2058,8 +2060,12 @@
       <c r="F6" s="40">
         <v>0</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
+      <c r="G6" s="41">
+        <v>1</v>
+      </c>
+      <c r="H6" s="41">
+        <v>0</v>
+      </c>
       <c r="I6" s="41">
         <v>0</v>
       </c>
@@ -2098,22 +2104,24 @@
       </c>
       <c r="C7" s="32">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="47">
+        <v>0</v>
+      </c>
+      <c r="G7" s="48">
+        <v>0</v>
+      </c>
+      <c r="H7" s="48">
         <v>1</v>
       </c>
-      <c r="G7" s="48">
-        <v>0</v>
-      </c>
-      <c r="H7" s="48"/>
       <c r="I7" s="48">
         <v>0</v>
       </c>
@@ -2122,7 +2130,7 @@
       <c r="L7" s="48"/>
       <c r="M7" s="78"/>
       <c r="N7" s="75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" s="32">
         <f t="shared" si="4"/>
@@ -2134,11 +2142,11 @@
       </c>
       <c r="Q7" s="32">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="33">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17">
@@ -2162,12 +2170,14 @@
         <v>2</v>
       </c>
       <c r="F8" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="41">
-        <v>1</v>
-      </c>
-      <c r="H8" s="41"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="41">
+        <v>0</v>
+      </c>
       <c r="I8" s="41">
         <v>0</v>
       </c>
@@ -2176,7 +2186,7 @@
       <c r="L8" s="41"/>
       <c r="M8" s="46"/>
       <c r="N8" s="77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8" s="37">
         <f t="shared" si="4"/>
@@ -2192,7 +2202,7 @@
       </c>
       <c r="R8" s="38">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17">
@@ -2219,9 +2229,11 @@
         <v>0</v>
       </c>
       <c r="G9" s="48">
-        <v>0</v>
-      </c>
-      <c r="H9" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="48">
+        <v>0</v>
+      </c>
       <c r="I9" s="48">
         <v>0</v>
       </c>
@@ -2230,7 +2242,7 @@
       <c r="L9" s="48"/>
       <c r="M9" s="78"/>
       <c r="N9" s="75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O9" s="32">
         <f t="shared" si="4"/>
@@ -2246,7 +2258,7 @@
       </c>
       <c r="R9" s="33">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17">
@@ -2264,18 +2276,20 @@
       </c>
       <c r="D10" s="38">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="39">
+        <v>2</v>
+      </c>
+      <c r="F10" s="40">
+        <v>0</v>
+      </c>
+      <c r="G10" s="41">
+        <v>0</v>
+      </c>
+      <c r="H10" s="41">
         <v>1</v>
       </c>
-      <c r="E10" s="39">
-        <v>3</v>
-      </c>
-      <c r="F10" s="40">
-        <v>1</v>
-      </c>
-      <c r="G10" s="41">
-        <v>0</v>
-      </c>
-      <c r="H10" s="41"/>
       <c r="I10" s="41">
         <v>0</v>
       </c>
@@ -2284,7 +2298,7 @@
       <c r="L10" s="41"/>
       <c r="M10" s="46"/>
       <c r="N10" s="77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10" s="37">
         <f t="shared" si="4"/>
@@ -2296,11 +2310,11 @@
       </c>
       <c r="Q10" s="37">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="38">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17">
@@ -2324,12 +2338,14 @@
         <v>3</v>
       </c>
       <c r="F11" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="48">
-        <v>1</v>
-      </c>
-      <c r="H11" s="48"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="48">
+        <v>0</v>
+      </c>
       <c r="I11" s="48">
         <v>0</v>
       </c>
@@ -2338,7 +2354,7 @@
       <c r="L11" s="48"/>
       <c r="M11" s="78"/>
       <c r="N11" s="75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O11" s="32">
         <f t="shared" si="4"/>
@@ -2350,7 +2366,7 @@
       </c>
       <c r="Q11" s="32">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="33">
         <f t="shared" si="7"/>
@@ -2381,22 +2397,20 @@
         <v>0</v>
       </c>
       <c r="G12" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="41">
         <v>0</v>
       </c>
-      <c r="J12" s="41">
-        <v>1</v>
-      </c>
+      <c r="J12" s="41"/>
       <c r="K12" s="41"/>
       <c r="L12" s="41"/>
       <c r="M12" s="46"/>
       <c r="N12" s="77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O12" s="37">
         <f t="shared" si="4"/>
@@ -2404,15 +2418,15 @@
       </c>
       <c r="P12" s="37">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="37">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="38">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="17">
@@ -2448,13 +2462,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="48"/>
       <c r="L13" s="48"/>
       <c r="M13" s="78"/>
       <c r="N13" s="75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O13" s="32">
         <f t="shared" si="4"/>
@@ -2470,7 +2484,7 @@
       </c>
       <c r="R13" s="33">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="17">
@@ -2480,26 +2494,34 @@
       </c>
       <c r="B14" s="37">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="39">
-        <v>4</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+        <v>3</v>
+      </c>
+      <c r="F14" s="40">
+        <v>0</v>
+      </c>
+      <c r="G14" s="41">
+        <v>0</v>
+      </c>
+      <c r="H14" s="41">
+        <v>1</v>
+      </c>
       <c r="I14" s="41">
         <v>0</v>
       </c>
-      <c r="J14" s="41"/>
+      <c r="J14" s="41">
+        <v>0</v>
+      </c>
       <c r="K14" s="41"/>
       <c r="L14" s="41"/>
       <c r="M14" s="46"/>
@@ -2538,17 +2560,13 @@
       </c>
       <c r="D15" s="33">
         <f t="shared" ref="D15:D17" si="11">IF(ISNUMBER($E15),MOD($E15,2),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="34">
-        <v>5</v>
-      </c>
-      <c r="F15" s="47">
-        <v>1</v>
-      </c>
-      <c r="G15" s="48">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="48"/>
       <c r="I15" s="48">
         <v>0</v>
@@ -2558,7 +2576,7 @@
       <c r="L15" s="48"/>
       <c r="M15" s="78"/>
       <c r="N15" s="75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O15" s="32">
         <f t="shared" ref="O15:O31" si="12">IF(ISNUMBER($N15),IF(MOD($N15,16)/8&gt;=1,1,0),"")</f>
@@ -2566,7 +2584,7 @@
       </c>
       <c r="P15" s="32">
         <f t="shared" ref="P15:P31" si="13">IF(ISNUMBER($N15),IF(MOD($N15,8)/4&gt;=1,1,0),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="32">
         <f t="shared" ref="Q15:Q31" si="14">IF(ISNUMBER($N15),IF(MOD($N15,4)/2&gt;=1,1,0),"")</f>
@@ -2598,10 +2616,14 @@
         <v>5</v>
       </c>
       <c r="F16" s="40">
-        <v>0</v>
-      </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="41">
+        <v>0</v>
+      </c>
+      <c r="H16" s="41">
+        <v>0</v>
+      </c>
       <c r="I16" s="41">
         <v>0</v>
       </c>
@@ -2610,7 +2632,7 @@
       <c r="L16" s="41"/>
       <c r="M16" s="46"/>
       <c r="N16" s="77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O16" s="37">
         <f t="shared" si="12"/>
@@ -2618,7 +2640,7 @@
       </c>
       <c r="P16" s="37">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="37">
         <f t="shared" si="14"/>
@@ -2636,24 +2658,24 @@
       </c>
       <c r="B17" s="32">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="32">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="33">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E17" s="34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" s="47">
         <v>0</v>
       </c>
       <c r="G17" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="48">
         <v>0</v>
@@ -2666,7 +2688,7 @@
       <c r="L17" s="48"/>
       <c r="M17" s="78"/>
       <c r="N17" s="75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O17" s="32">
         <f t="shared" si="12"/>
@@ -2674,11 +2696,11 @@
       </c>
       <c r="P17" s="32">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="32">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="33">
         <f t="shared" si="15"/>
@@ -2686,223 +2708,283 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="17">
-      <c r="A18" s="37" t="str">
+      <c r="A18" s="37">
         <f t="shared" ref="A18:A31" si="16">IF(ISNUMBER($E18),IF(MOD($E18,16)/8&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="B18" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="B18" s="37">
         <f t="shared" ref="B18:B31" si="17">IF(ISNUMBER($E18),IF(MOD($E18,8)/4&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="C18" s="37" t="str">
+        <v>1</v>
+      </c>
+      <c r="C18" s="37">
         <f t="shared" ref="C18:C31" si="18">IF(ISNUMBER($E18),IF(MOD($E18,4)/2&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="D18" s="38" t="str">
+        <v>0</v>
+      </c>
+      <c r="D18" s="38">
         <f t="shared" ref="D18:D31" si="19">IF(ISNUMBER($E18),MOD($E18,2),"")</f>
-        <v/>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="39">
+        <v>5</v>
+      </c>
+      <c r="F18" s="40">
+        <v>0</v>
+      </c>
+      <c r="G18" s="41">
+        <v>0</v>
+      </c>
+      <c r="H18" s="41">
+        <v>1</v>
+      </c>
+      <c r="I18" s="41">
+        <v>0</v>
+      </c>
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
       <c r="M18" s="46"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="37" t="str">
+      <c r="N18" s="77">
+        <v>5</v>
+      </c>
+      <c r="O18" s="37">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="P18" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="P18" s="37">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q18" s="37" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="37">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="R18" s="38" t="str">
+        <v>0</v>
+      </c>
+      <c r="R18" s="38">
         <f t="shared" si="15"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="17">
-      <c r="A19" s="32" t="str">
+      <c r="A19" s="32">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="B19" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="B19" s="32">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="C19" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="C19" s="32">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="D19" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="D19" s="33">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="34">
+        <v>1</v>
+      </c>
+      <c r="F19" s="47">
+        <v>0</v>
+      </c>
+      <c r="G19" s="48">
+        <v>0</v>
+      </c>
+      <c r="H19" s="48">
+        <v>0</v>
+      </c>
+      <c r="I19" s="48">
+        <v>0</v>
+      </c>
       <c r="J19" s="48"/>
       <c r="K19" s="48"/>
       <c r="L19" s="48"/>
       <c r="M19" s="78"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="32" t="str">
+      <c r="N19" s="75">
+        <v>1</v>
+      </c>
+      <c r="O19" s="32">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="P19" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="P19" s="32">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q19" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="32">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="R19" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="R19" s="33">
         <f t="shared" si="15"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="17">
-      <c r="A20" s="37" t="str">
+      <c r="A20" s="37">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="B20" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="B20" s="37">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="C20" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="C20" s="37">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="D20" s="38" t="str">
+        <v>1</v>
+      </c>
+      <c r="D20" s="38">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="39">
+        <v>2</v>
+      </c>
+      <c r="F20" s="40">
+        <v>0</v>
+      </c>
+      <c r="G20" s="41">
+        <v>0</v>
+      </c>
+      <c r="H20" s="41">
+        <v>0</v>
+      </c>
+      <c r="I20" s="41">
+        <v>0</v>
+      </c>
       <c r="J20" s="41"/>
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
       <c r="M20" s="46"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="37" t="str">
+      <c r="N20" s="77">
+        <v>2</v>
+      </c>
+      <c r="O20" s="37">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="P20" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="P20" s="37">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q20" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="37">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="R20" s="38" t="str">
+        <v>1</v>
+      </c>
+      <c r="R20" s="38">
         <f t="shared" si="15"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="17">
-      <c r="A21" s="32" t="str">
+      <c r="A21" s="32">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="B21" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="B21" s="32">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="C21" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="C21" s="32">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="D21" s="33" t="str">
+        <v>1</v>
+      </c>
+      <c r="D21" s="33">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="34">
+        <v>3</v>
+      </c>
+      <c r="F21" s="47">
+        <v>0</v>
+      </c>
+      <c r="G21" s="48">
+        <v>0</v>
+      </c>
+      <c r="H21" s="48">
+        <v>0</v>
+      </c>
+      <c r="I21" s="48">
+        <v>0</v>
+      </c>
       <c r="J21" s="48"/>
       <c r="K21" s="48"/>
       <c r="L21" s="48"/>
       <c r="M21" s="78"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="32" t="str">
+      <c r="N21" s="75">
+        <v>3</v>
+      </c>
+      <c r="O21" s="32">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="P21" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="P21" s="32">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q21" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="32">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="R21" s="33" t="str">
+        <v>1</v>
+      </c>
+      <c r="R21" s="33">
         <f t="shared" si="15"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="17">
-      <c r="A22" s="37" t="str">
+      <c r="A22" s="37">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="B22" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="B22" s="37">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="C22" s="37" t="str">
+        <v>1</v>
+      </c>
+      <c r="C22" s="37">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="D22" s="38" t="str">
+        <v>0</v>
+      </c>
+      <c r="D22" s="38">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="39">
+        <v>5</v>
+      </c>
+      <c r="F22" s="40">
+        <v>0</v>
+      </c>
+      <c r="G22" s="41">
+        <v>0</v>
+      </c>
+      <c r="H22" s="41">
+        <v>0</v>
+      </c>
+      <c r="I22" s="41">
+        <v>0</v>
+      </c>
       <c r="J22" s="41"/>
       <c r="K22" s="41"/>
       <c r="L22" s="41"/>
       <c r="M22" s="46"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="37" t="str">
+      <c r="N22" s="77">
+        <v>5</v>
+      </c>
+      <c r="O22" s="37">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="P22" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="P22" s="37">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q22" s="37" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="37">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="R22" s="38" t="str">
+        <v>0</v>
+      </c>
+      <c r="R22" s="38">
         <f t="shared" si="15"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="17">
@@ -3302,16 +3384,16 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="17">
-      <c r="F32" s="88" t="s">
+      <c r="F32" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3360,7 +3442,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -3600,7 +3682,7 @@
       </c>
       <c r="G4" s="59" t="str">
         <f>IF(状态转换表!H5&lt;&gt;"",IF(状态转换表!H5=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H5=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~store&amp;</v>
       </c>
       <c r="H4" s="59" t="str">
         <f>IF(状态转换表!I5&lt;&gt;"",IF(状态转换表!I5=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I5=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
@@ -3624,7 +3706,7 @@
       </c>
       <c r="M4" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~reset</v>
+        <v>~S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset</v>
       </c>
       <c r="N4" s="19" t="str">
         <f>IF(状态转换表!O5=1,$M4&amp;"+","")</f>
@@ -3636,7 +3718,7 @@
       </c>
       <c r="P4" s="19" t="str">
         <f>IF(状态转换表!Q5=1,$M4&amp;"+","")</f>
-        <v>~S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~reset+</v>
+        <v>~S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset+</v>
       </c>
       <c r="Q4" s="19" t="str">
         <f>IF(状态转换表!R5=1,$M4&amp;"+","")</f>
@@ -3663,11 +3745,11 @@
       </c>
       <c r="F5" s="59" t="str">
         <f>IF(状态转换表!G6&lt;&gt;"",IF(状态转换表!G6=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G6=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>stop&amp;</v>
       </c>
       <c r="G5" s="59" t="str">
         <f>IF(状态转换表!H6&lt;&gt;"",IF(状态转换表!H6=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H6=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~store&amp;</v>
       </c>
       <c r="H5" s="59" t="str">
         <f>IF(状态转换表!I6&lt;&gt;"",IF(状态转换表!I6=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I6=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
@@ -3691,7 +3773,7 @@
       </c>
       <c r="M5" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;~S1&amp;S0&amp;~start&amp;~reset</v>
+        <v>~S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset</v>
       </c>
       <c r="N5" s="19" t="str">
         <f>IF(状态转换表!O6=1,$M5&amp;"+","")</f>
@@ -3707,7 +3789,7 @@
       </c>
       <c r="Q5" s="19" t="str">
         <f>IF(状态转换表!R6=1,$M5&amp;"+","")</f>
-        <v>~S2&amp;~S1&amp;S0&amp;~start&amp;~reset+</v>
+        <v>~S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3718,15 +3800,15 @@
       </c>
       <c r="C6" s="59" t="str">
         <f>IF(状态转换表!C7=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C7=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v>S1&amp;</v>
+        <v>~S1&amp;</v>
       </c>
       <c r="D6" s="60" t="str">
         <f>IF(状态转换表!D7=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D7=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v>~S0&amp;</v>
+        <v>S0&amp;</v>
       </c>
       <c r="E6" s="61" t="str">
         <f>IF(状态转换表!F7&lt;&gt;"",IF(状态转换表!F7=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F7=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v>start&amp;</v>
+        <v>~start&amp;</v>
       </c>
       <c r="F6" s="59" t="str">
         <f>IF(状态转换表!G7&lt;&gt;"",IF(状态转换表!G7=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G7=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
@@ -3734,7 +3816,7 @@
       </c>
       <c r="G6" s="59" t="str">
         <f>IF(状态转换表!H7&lt;&gt;"",IF(状态转换表!H7=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H7=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>store&amp;</v>
       </c>
       <c r="H6" s="59" t="str">
         <f>IF(状态转换表!I7&lt;&gt;"",IF(状态转换表!I7=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I7=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
@@ -3758,7 +3840,7 @@
       </c>
       <c r="M6" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;S1&amp;~S0&amp;start&amp;~stop&amp;~reset</v>
+        <v>~S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset</v>
       </c>
       <c r="N6" s="19" t="str">
         <f>IF(状态转换表!O7=1,$M6&amp;"+","")</f>
@@ -3770,11 +3852,11 @@
       </c>
       <c r="P6" s="19" t="str">
         <f>IF(状态转换表!Q7=1,$M6&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;~S0&amp;start&amp;~stop&amp;~reset+</v>
+        <v/>
       </c>
       <c r="Q6" s="19" t="str">
         <f>IF(状态转换表!R7=1,$M6&amp;"+","")</f>
-        <v/>
+        <v>~S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset+</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3793,15 +3875,15 @@
       </c>
       <c r="E7" s="61" t="str">
         <f>IF(状态转换表!F8&lt;&gt;"",IF(状态转换表!F8=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F8=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v>~start&amp;</v>
+        <v>start&amp;</v>
       </c>
       <c r="F7" s="59" t="str">
         <f>IF(状态转换表!G8&lt;&gt;"",IF(状态转换表!G8=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G8=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v>stop&amp;</v>
+        <v>~stop&amp;</v>
       </c>
       <c r="G7" s="59" t="str">
         <f>IF(状态转换表!H8&lt;&gt;"",IF(状态转换表!H8=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H8=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~store&amp;</v>
       </c>
       <c r="H7" s="59" t="str">
         <f>IF(状态转换表!I8&lt;&gt;"",IF(状态转换表!I8=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I8=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
@@ -3825,7 +3907,7 @@
       </c>
       <c r="M7" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~reset</v>
+        <v>~S2&amp;S1&amp;~S0&amp;start&amp;~stop&amp;~store&amp;~reset</v>
       </c>
       <c r="N7" s="19" t="str">
         <f>IF(状态转换表!O8=1,$M7&amp;"+","")</f>
@@ -3837,11 +3919,11 @@
       </c>
       <c r="P7" s="19" t="str">
         <f>IF(状态转换表!Q8=1,$M7&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~reset+</v>
+        <v>~S2&amp;S1&amp;~S0&amp;start&amp;~stop&amp;~store&amp;~reset+</v>
       </c>
       <c r="Q7" s="19" t="str">
         <f>IF(状态转换表!R8=1,$M7&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~reset+</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3864,11 +3946,11 @@
       </c>
       <c r="F8" s="59" t="str">
         <f>IF(状态转换表!G9&lt;&gt;"",IF(状态转换表!G9=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G9=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v>~stop&amp;</v>
+        <v>stop&amp;</v>
       </c>
       <c r="G8" s="59" t="str">
         <f>IF(状态转换表!H9&lt;&gt;"",IF(状态转换表!H9=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H9=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~store&amp;</v>
       </c>
       <c r="H8" s="59" t="str">
         <f>IF(状态转换表!I9&lt;&gt;"",IF(状态转换表!I9=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I9=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
@@ -3892,7 +3974,7 @@
       </c>
       <c r="M8" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;~reset</v>
+        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~store&amp;~reset</v>
       </c>
       <c r="N8" s="19" t="str">
         <f>IF(状态转换表!O9=1,$M8&amp;"+","")</f>
@@ -3904,11 +3986,11 @@
       </c>
       <c r="P8" s="19" t="str">
         <f>IF(状态转换表!Q9=1,$M8&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;~reset+</v>
+        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~store&amp;~reset+</v>
       </c>
       <c r="Q8" s="19" t="str">
         <f>IF(状态转换表!R9=1,$M8&amp;"+","")</f>
-        <v/>
+        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~store&amp;~reset+</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3923,11 +4005,11 @@
       </c>
       <c r="D9" s="60" t="str">
         <f>IF(状态转换表!D10=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D10=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v>S0&amp;</v>
+        <v>~S0&amp;</v>
       </c>
       <c r="E9" s="61" t="str">
         <f>IF(状态转换表!F10&lt;&gt;"",IF(状态转换表!F10=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F10=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v>start&amp;</v>
+        <v>~start&amp;</v>
       </c>
       <c r="F9" s="59" t="str">
         <f>IF(状态转换表!G10&lt;&gt;"",IF(状态转换表!G10=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G10=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
@@ -3935,7 +4017,7 @@
       </c>
       <c r="G9" s="59" t="str">
         <f>IF(状态转换表!H10&lt;&gt;"",IF(状态转换表!H10=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H10=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>store&amp;</v>
       </c>
       <c r="H9" s="59" t="str">
         <f>IF(状态转换表!I10&lt;&gt;"",IF(状态转换表!I10=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I10=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
@@ -3959,7 +4041,7 @@
       </c>
       <c r="M9" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;S1&amp;S0&amp;start&amp;~stop&amp;~reset</v>
+        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;store&amp;~reset</v>
       </c>
       <c r="N9" s="19" t="str">
         <f>IF(状态转换表!O10=1,$M9&amp;"+","")</f>
@@ -3971,11 +4053,11 @@
       </c>
       <c r="P9" s="19" t="str">
         <f>IF(状态转换表!Q10=1,$M9&amp;"+","")</f>
-        <v/>
+        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;store&amp;~reset+</v>
       </c>
       <c r="Q9" s="19" t="str">
         <f>IF(状态转换表!R10=1,$M9&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;S0&amp;start&amp;~stop&amp;~reset+</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3994,15 +4076,15 @@
       </c>
       <c r="E10" s="61" t="str">
         <f>IF(状态转换表!F11&lt;&gt;"",IF(状态转换表!F11=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F11=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v>~start&amp;</v>
+        <v>start&amp;</v>
       </c>
       <c r="F10" s="59" t="str">
         <f>IF(状态转换表!G11&lt;&gt;"",IF(状态转换表!G11=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G11=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v>stop&amp;</v>
+        <v>~stop&amp;</v>
       </c>
       <c r="G10" s="59" t="str">
         <f>IF(状态转换表!H11&lt;&gt;"",IF(状态转换表!H11=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H11=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~store&amp;</v>
       </c>
       <c r="H10" s="59" t="str">
         <f>IF(状态转换表!I11&lt;&gt;"",IF(状态转换表!I11=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I11=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
@@ -4026,7 +4108,7 @@
       </c>
       <c r="M10" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~reset</v>
+        <v>~S2&amp;S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset</v>
       </c>
       <c r="N10" s="19" t="str">
         <f>IF(状态转换表!O11=1,$M10&amp;"+","")</f>
@@ -4038,11 +4120,11 @@
       </c>
       <c r="P10" s="19" t="str">
         <f>IF(状态转换表!Q11=1,$M10&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~reset+</v>
+        <v/>
       </c>
       <c r="Q10" s="19" t="str">
         <f>IF(状态转换表!R11=1,$M10&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~reset+</v>
+        <v>~S2&amp;S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset+</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4065,11 +4147,11 @@
       </c>
       <c r="F11" s="59" t="str">
         <f>IF(状态转换表!G12&lt;&gt;"",IF(状态转换表!G12=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G12=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v>~stop&amp;</v>
+        <v>stop&amp;</v>
       </c>
       <c r="G11" s="59" t="str">
         <f>IF(状态转换表!H12&lt;&gt;"",IF(状态转换表!H12=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H12=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v>store&amp;</v>
+        <v>~store&amp;</v>
       </c>
       <c r="H11" s="59" t="str">
         <f>IF(状态转换表!I12&lt;&gt;"",IF(状态转换表!I12=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I12=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
@@ -4077,7 +4159,7 @@
       </c>
       <c r="I11" s="59" t="str">
         <f>IF(状态转换表!J12&lt;&gt;"",IF(状态转换表!J12=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J12=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
-        <v>NewRecord&amp;</v>
+        <v/>
       </c>
       <c r="J11" s="59" t="str">
         <f>IF(状态转换表!K12&lt;&gt;"",IF(状态转换表!K12=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K12=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
@@ -4093,7 +4175,7 @@
       </c>
       <c r="M11" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;NewRecord</v>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset</v>
       </c>
       <c r="N11" s="19" t="str">
         <f>IF(状态转换表!O12=1,$M11&amp;"+","")</f>
@@ -4101,15 +4183,15 @@
       </c>
       <c r="O11" s="19" t="str">
         <f>IF(状态转换表!P12=1,$M11&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;NewRecord+</v>
+        <v/>
       </c>
       <c r="P11" s="19" t="str">
         <f>IF(状态转换表!Q12=1,$M11&amp;"+","")</f>
-        <v/>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+</v>
       </c>
       <c r="Q11" s="19" t="str">
         <f>IF(状态转换表!R12=1,$M11&amp;"+","")</f>
-        <v/>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4144,7 +4226,7 @@
       </c>
       <c r="I12" s="59" t="str">
         <f>IF(状态转换表!J13&lt;&gt;"",IF(状态转换表!J13=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J13=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
-        <v>~NewRecord&amp;</v>
+        <v>NewRecord&amp;</v>
       </c>
       <c r="J12" s="59" t="str">
         <f>IF(状态转换表!K13&lt;&gt;"",IF(状态转换表!K13=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K13=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
@@ -4160,7 +4242,7 @@
       </c>
       <c r="M12" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord</v>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;NewRecord</v>
       </c>
       <c r="N12" s="19" t="str">
         <f>IF(状态转换表!O13=1,$M12&amp;"+","")</f>
@@ -4168,7 +4250,7 @@
       </c>
       <c r="O12" s="19" t="str">
         <f>IF(状态转换表!P13=1,$M12&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+</v>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;NewRecord+</v>
       </c>
       <c r="P12" s="19" t="str">
         <f>IF(状态转换表!Q13=1,$M12&amp;"+","")</f>
@@ -4176,34 +4258,34 @@
       </c>
       <c r="Q12" s="19" t="str">
         <f>IF(状态转换表!R13=1,$M12&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="55"/>
       <c r="B13" s="59" t="str">
         <f>IF(状态转换表!B14=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B14=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v>S2&amp;</v>
+        <v>~S2&amp;</v>
       </c>
       <c r="C13" s="59" t="str">
         <f>IF(状态转换表!C14=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C14=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v>~S1&amp;</v>
+        <v>S1&amp;</v>
       </c>
       <c r="D13" s="60" t="str">
         <f>IF(状态转换表!D14=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D14=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v>~S0&amp;</v>
+        <v>S0&amp;</v>
       </c>
       <c r="E13" s="61" t="str">
         <f>IF(状态转换表!F14&lt;&gt;"",IF(状态转换表!F14=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F14=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~start&amp;</v>
       </c>
       <c r="F13" s="59" t="str">
         <f>IF(状态转换表!G14&lt;&gt;"",IF(状态转换表!G14=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G14=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~stop&amp;</v>
       </c>
       <c r="G13" s="59" t="str">
         <f>IF(状态转换表!H14&lt;&gt;"",IF(状态转换表!H14=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H14=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>store&amp;</v>
       </c>
       <c r="H13" s="59" t="str">
         <f>IF(状态转换表!I14&lt;&gt;"",IF(状态转换表!I14=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I14=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
@@ -4211,7 +4293,7 @@
       </c>
       <c r="I13" s="59" t="str">
         <f>IF(状态转换表!J14&lt;&gt;"",IF(状态转换表!J14=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J14=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~NewRecord&amp;</v>
       </c>
       <c r="J13" s="59" t="str">
         <f>IF(状态转换表!K14&lt;&gt;"",IF(状态转换表!K14=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K14=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
@@ -4227,7 +4309,7 @@
       </c>
       <c r="M13" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>S2&amp;~S1&amp;~S0&amp;~reset</v>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord</v>
       </c>
       <c r="N13" s="19" t="str">
         <f>IF(状态转换表!O14=1,$M13&amp;"+","")</f>
@@ -4235,7 +4317,7 @@
       </c>
       <c r="O13" s="19" t="str">
         <f>IF(状态转换表!P14=1,$M13&amp;"+","")</f>
-        <v>S2&amp;~S1&amp;~S0&amp;~reset+</v>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+</v>
       </c>
       <c r="P13" s="19" t="str">
         <f>IF(状态转换表!Q14=1,$M13&amp;"+","")</f>
@@ -4243,7 +4325,7 @@
       </c>
       <c r="Q13" s="19" t="str">
         <f>IF(状态转换表!R14=1,$M13&amp;"+","")</f>
-        <v>S2&amp;~S1&amp;~S0&amp;~reset+</v>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4258,15 +4340,15 @@
       </c>
       <c r="D14" s="60" t="str">
         <f>IF(状态转换表!D15=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D15=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v>S0&amp;</v>
+        <v>~S0&amp;</v>
       </c>
       <c r="E14" s="61" t="str">
         <f>IF(状态转换表!F15&lt;&gt;"",IF(状态转换表!F15=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F15=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v>start&amp;</v>
+        <v/>
       </c>
       <c r="F14" s="59" t="str">
         <f>IF(状态转换表!G15&lt;&gt;"",IF(状态转换表!G15=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G15=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v>~stop&amp;</v>
+        <v/>
       </c>
       <c r="G14" s="59" t="str">
         <f>IF(状态转换表!H15&lt;&gt;"",IF(状态转换表!H15=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H15=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
@@ -4294,7 +4376,7 @@
       </c>
       <c r="M14" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~reset</v>
+        <v>S2&amp;~S1&amp;~S0&amp;~reset</v>
       </c>
       <c r="N14" s="19" t="str">
         <f>IF(状态转换表!O15=1,$M14&amp;"+","")</f>
@@ -4302,7 +4384,7 @@
       </c>
       <c r="O14" s="19" t="str">
         <f>IF(状态转换表!P15=1,$M14&amp;"+","")</f>
-        <v/>
+        <v>S2&amp;~S1&amp;~S0&amp;~reset+</v>
       </c>
       <c r="P14" s="19" t="str">
         <f>IF(状态转换表!Q15=1,$M14&amp;"+","")</f>
@@ -4310,7 +4392,7 @@
       </c>
       <c r="Q14" s="19" t="str">
         <f>IF(状态转换表!R15=1,$M14&amp;"+","")</f>
-        <v>S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~reset+</v>
+        <v>S2&amp;~S1&amp;~S0&amp;~reset+</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4329,15 +4411,15 @@
       </c>
       <c r="E15" s="61" t="str">
         <f>IF(状态转换表!F16&lt;&gt;"",IF(状态转换表!F16=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F16=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v>~start&amp;</v>
+        <v>start&amp;</v>
       </c>
       <c r="F15" s="59" t="str">
         <f>IF(状态转换表!G16&lt;&gt;"",IF(状态转换表!G16=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G16=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~stop&amp;</v>
       </c>
       <c r="G15" s="59" t="str">
         <f>IF(状态转换表!H16&lt;&gt;"",IF(状态转换表!H16=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H16=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~store&amp;</v>
       </c>
       <c r="H15" s="59" t="str">
         <f>IF(状态转换表!I16&lt;&gt;"",IF(状态转换表!I16=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I16=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
@@ -4361,7 +4443,7 @@
       </c>
       <c r="M15" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>S2&amp;~S1&amp;S0&amp;~start&amp;~reset</v>
+        <v>S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset</v>
       </c>
       <c r="N15" s="19" t="str">
         <f>IF(状态转换表!O16=1,$M15&amp;"+","")</f>
@@ -4369,7 +4451,7 @@
       </c>
       <c r="O15" s="19" t="str">
         <f>IF(状态转换表!P16=1,$M15&amp;"+","")</f>
-        <v>S2&amp;~S1&amp;S0&amp;~start&amp;~reset+</v>
+        <v/>
       </c>
       <c r="P15" s="19" t="str">
         <f>IF(状态转换表!Q16=1,$M15&amp;"+","")</f>
@@ -4377,18 +4459,18 @@
       </c>
       <c r="Q15" s="19" t="str">
         <f>IF(状态转换表!R16=1,$M15&amp;"+","")</f>
-        <v>S2&amp;~S1&amp;S0&amp;~start&amp;~reset+</v>
+        <v>S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset+</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="55"/>
       <c r="B16" s="59" t="str">
         <f>IF(状态转换表!B17=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B17=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v>~S2&amp;</v>
+        <v>S2&amp;</v>
       </c>
       <c r="C16" s="59" t="str">
         <f>IF(状态转换表!C17=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C17=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v>S1&amp;</v>
+        <v>~S1&amp;</v>
       </c>
       <c r="D16" s="60" t="str">
         <f>IF(状态转换表!D17=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D17=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
@@ -4400,7 +4482,7 @@
       </c>
       <c r="F16" s="59" t="str">
         <f>IF(状态转换表!G17&lt;&gt;"",IF(状态转换表!G17=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G17=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v>~stop&amp;</v>
+        <v>stop&amp;</v>
       </c>
       <c r="G16" s="59" t="str">
         <f>IF(状态转换表!H17&lt;&gt;"",IF(状态转换表!H17=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H17=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
@@ -4428,7 +4510,7 @@
       </c>
       <c r="M16" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset</v>
+        <v>S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset</v>
       </c>
       <c r="N16" s="19" t="str">
         <f>IF(状态转换表!O17=1,$M16&amp;"+","")</f>
@@ -4436,46 +4518,46 @@
       </c>
       <c r="O16" s="19" t="str">
         <f>IF(状态转换表!P17=1,$M16&amp;"+","")</f>
-        <v/>
+        <v>S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+</v>
       </c>
       <c r="P16" s="19" t="str">
         <f>IF(状态转换表!Q17=1,$M16&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
+        <v/>
       </c>
       <c r="Q16" s="19" t="str">
         <f>IF(状态转换表!R17=1,$M16&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
+        <v>S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="55"/>
       <c r="B17" s="59" t="str">
         <f>IF(状态转换表!B18=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B18=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S2&amp;</v>
       </c>
       <c r="C17" s="59" t="str">
         <f>IF(状态转换表!C18=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C18=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="D17" s="60" t="str">
         <f>IF(状态转换表!D18=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D18=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="E17" s="61" t="str">
         <f>IF(状态转换表!F18&lt;&gt;"",IF(状态转换表!F18=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F18=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~start&amp;</v>
       </c>
       <c r="F17" s="59" t="str">
         <f>IF(状态转换表!G18&lt;&gt;"",IF(状态转换表!G18=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G18=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~stop&amp;</v>
       </c>
       <c r="G17" s="59" t="str">
         <f>IF(状态转换表!H18&lt;&gt;"",IF(状态转换表!H18=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H18=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>store&amp;</v>
       </c>
       <c r="H17" s="59" t="str">
         <f>IF(状态转换表!I18&lt;&gt;"",IF(状态转换表!I18=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I18=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~reset&amp;</v>
       </c>
       <c r="I17" s="59" t="str">
         <f>IF(状态转换表!J18&lt;&gt;"",IF(状态转换表!J18=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J18=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
@@ -4495,7 +4577,7 @@
       </c>
       <c r="M17" s="69" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset</v>
       </c>
       <c r="N17" s="19" t="str">
         <f>IF(状态转换表!O18=1,$M17&amp;"+","")</f>
@@ -4503,7 +4585,7 @@
       </c>
       <c r="O17" s="19" t="str">
         <f>IF(状态转换表!P18=1,$M17&amp;"+","")</f>
-        <v/>
+        <v>S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset+</v>
       </c>
       <c r="P17" s="19" t="str">
         <f>IF(状态转换表!Q18=1,$M17&amp;"+","")</f>
@@ -4511,38 +4593,38 @@
       </c>
       <c r="Q17" s="19" t="str">
         <f>IF(状态转换表!R18=1,$M17&amp;"+","")</f>
-        <v/>
+        <v>S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset+</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="55"/>
       <c r="B18" s="59" t="str">
         <f>IF(状态转换表!B19=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B19=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="C18" s="59" t="str">
         <f>IF(状态转换表!C19=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C19=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="D18" s="60" t="str">
         <f>IF(状态转换表!D19=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D19=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="E18" s="61" t="str">
         <f>IF(状态转换表!F19&lt;&gt;"",IF(状态转换表!F19=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F19=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~start&amp;</v>
       </c>
       <c r="F18" s="59" t="str">
         <f>IF(状态转换表!G19&lt;&gt;"",IF(状态转换表!G19=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G19=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~stop&amp;</v>
       </c>
       <c r="G18" s="59" t="str">
         <f>IF(状态转换表!H19&lt;&gt;"",IF(状态转换表!H19=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H19=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~store&amp;</v>
       </c>
       <c r="H18" s="59" t="str">
         <f>IF(状态转换表!I19&lt;&gt;"",IF(状态转换表!I19=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I19=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~reset&amp;</v>
       </c>
       <c r="I18" s="59" t="str">
         <f>IF(状态转换表!J19&lt;&gt;"",IF(状态转换表!J19=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J19=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
@@ -4562,7 +4644,7 @@
       </c>
       <c r="M18" s="69" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset</v>
       </c>
       <c r="N18" s="19" t="str">
         <f>IF(状态转换表!O19=1,$M18&amp;"+","")</f>
@@ -4578,38 +4660,38 @@
       </c>
       <c r="Q18" s="19" t="str">
         <f>IF(状态转换表!R19=1,$M18&amp;"+","")</f>
-        <v/>
+        <v>~S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="55"/>
       <c r="B19" s="59" t="str">
         <f>IF(状态转换表!B20=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B20=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="C19" s="59" t="str">
         <f>IF(状态转换表!C20=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C20=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S1&amp;</v>
       </c>
       <c r="D19" s="60" t="str">
         <f>IF(状态转换表!D20=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D20=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S0&amp;</v>
       </c>
       <c r="E19" s="61" t="str">
         <f>IF(状态转换表!F20&lt;&gt;"",IF(状态转换表!F20=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F20=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~start&amp;</v>
       </c>
       <c r="F19" s="59" t="str">
         <f>IF(状态转换表!G20&lt;&gt;"",IF(状态转换表!G20=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G20=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~stop&amp;</v>
       </c>
       <c r="G19" s="59" t="str">
         <f>IF(状态转换表!H20&lt;&gt;"",IF(状态转换表!H20=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H20=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~store&amp;</v>
       </c>
       <c r="H19" s="59" t="str">
         <f>IF(状态转换表!I20&lt;&gt;"",IF(状态转换表!I20=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I20=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~reset&amp;</v>
       </c>
       <c r="I19" s="59" t="str">
         <f>IF(状态转换表!J20&lt;&gt;"",IF(状态转换表!J20=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J20=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
@@ -4629,7 +4711,7 @@
       </c>
       <c r="M19" s="69" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;~store&amp;~reset</v>
       </c>
       <c r="N19" s="19" t="str">
         <f>IF(状态转换表!O20=1,$M19&amp;"+","")</f>
@@ -4641,7 +4723,7 @@
       </c>
       <c r="P19" s="19" t="str">
         <f>IF(状态转换表!Q20=1,$M19&amp;"+","")</f>
-        <v/>
+        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
       </c>
       <c r="Q19" s="19" t="str">
         <f>IF(状态转换表!R20=1,$M19&amp;"+","")</f>
@@ -4652,31 +4734,31 @@
       <c r="A20" s="55"/>
       <c r="B20" s="59" t="str">
         <f>IF(状态转换表!B21=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B21=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="C20" s="59" t="str">
         <f>IF(状态转换表!C21=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C21=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S1&amp;</v>
       </c>
       <c r="D20" s="60" t="str">
         <f>IF(状态转换表!D21=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D21=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="E20" s="61" t="str">
         <f>IF(状态转换表!F21&lt;&gt;"",IF(状态转换表!F21=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F21=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~start&amp;</v>
       </c>
       <c r="F20" s="59" t="str">
         <f>IF(状态转换表!G21&lt;&gt;"",IF(状态转换表!G21=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G21=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~stop&amp;</v>
       </c>
       <c r="G20" s="59" t="str">
         <f>IF(状态转换表!H21&lt;&gt;"",IF(状态转换表!H21=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H21=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~store&amp;</v>
       </c>
       <c r="H20" s="59" t="str">
         <f>IF(状态转换表!I21&lt;&gt;"",IF(状态转换表!I21=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I21=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~reset&amp;</v>
       </c>
       <c r="I20" s="59" t="str">
         <f>IF(状态转换表!J21&lt;&gt;"",IF(状态转换表!J21=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J21=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
@@ -4696,7 +4778,7 @@
       </c>
       <c r="M20" s="69" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset</v>
       </c>
       <c r="N20" s="19" t="str">
         <f>IF(状态转换表!O21=1,$M20&amp;"+","")</f>
@@ -4708,42 +4790,42 @@
       </c>
       <c r="P20" s="19" t="str">
         <f>IF(状态转换表!Q21=1,$M20&amp;"+","")</f>
-        <v/>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
       </c>
       <c r="Q20" s="19" t="str">
         <f>IF(状态转换表!R21=1,$M20&amp;"+","")</f>
-        <v/>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="55"/>
       <c r="B21" s="59" t="str">
         <f>IF(状态转换表!B22=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B22=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S2&amp;</v>
       </c>
       <c r="C21" s="59" t="str">
         <f>IF(状态转换表!C22=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C22=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="D21" s="60" t="str">
         <f>IF(状态转换表!D22=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D22=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="E21" s="61" t="str">
         <f>IF(状态转换表!F22&lt;&gt;"",IF(状态转换表!F22=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F22=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~start&amp;</v>
       </c>
       <c r="F21" s="59" t="str">
         <f>IF(状态转换表!G22&lt;&gt;"",IF(状态转换表!G22=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G22=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~stop&amp;</v>
       </c>
       <c r="G21" s="59" t="str">
         <f>IF(状态转换表!H22&lt;&gt;"",IF(状态转换表!H22=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H22=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~store&amp;</v>
       </c>
       <c r="H21" s="59" t="str">
         <f>IF(状态转换表!I22&lt;&gt;"",IF(状态转换表!I22=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I22=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~reset&amp;</v>
       </c>
       <c r="I21" s="59" t="str">
         <f>IF(状态转换表!J22&lt;&gt;"",IF(状态转换表!J22=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J22=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
@@ -4763,7 +4845,7 @@
       </c>
       <c r="M21" s="69" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset</v>
       </c>
       <c r="N21" s="19" t="str">
         <f>IF(状态转换表!O22=1,$M21&amp;"+","")</f>
@@ -4771,7 +4853,7 @@
       </c>
       <c r="O21" s="19" t="str">
         <f>IF(状态转换表!P22=1,$M21&amp;"+","")</f>
-        <v/>
+        <v>S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
       </c>
       <c r="P21" s="19" t="str">
         <f>IF(状态转换表!Q22=1,$M21&amp;"+","")</f>
@@ -4779,7 +4861,7 @@
       </c>
       <c r="Q21" s="19" t="str">
         <f>IF(状态转换表!R22=1,$M21&amp;"+","")</f>
-        <v/>
+        <v>S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -5410,36 +5492,36 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="17">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="91"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="93"/>
       <c r="N31" s="22" t="str">
         <f>IF(LEN(N32)&gt;1,LEFT(N32,LEN(N32)-1),"")</f>
         <v/>
       </c>
       <c r="O31" s="22" t="str">
         <f>IF(LEN(O32)&gt;1,LEFT(O32,LEN(O32)-1),"")</f>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;NewRecord+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+S2&amp;~S1&amp;~S0&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~reset</v>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;NewRecord+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+S2&amp;~S1&amp;~S0&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset</v>
       </c>
       <c r="P31" s="22" t="str">
         <f>IF(LEN(P32)&gt;1,LEFT(P32,LEN(P32)-1),"")</f>
-        <v>~S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~reset+~S2&amp;S1&amp;~S0&amp;start&amp;~stop&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset</v>
+        <v>~S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset+~S2&amp;S1&amp;~S0&amp;start&amp;~stop&amp;~store&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~store&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;store&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;~store&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset</v>
       </c>
       <c r="Q31" s="24" t="str">
         <f>IF(LEN(Q32)&gt;1,LEFT(Q32,LEN(Q32)-1),"")</f>
-        <v>~S2&amp;~S1&amp;~S0&amp;~reset+~S2&amp;~S1&amp;S0&amp;~start&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~reset+~S2&amp;S1&amp;S0&amp;start&amp;~stop&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+S2&amp;~S1&amp;~S0&amp;~reset+S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset</v>
+        <v>~S2&amp;~S1&amp;~S0&amp;~reset+~S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+~S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~store&amp;~reset+~S2&amp;S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+S2&amp;~S1&amp;~S0&amp;~reset+S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset+~S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="17.25" hidden="1" customHeight="1">
@@ -5462,29 +5544,29 @@
       </c>
       <c r="O32" s="23" t="str">
         <f t="shared" ref="O32:Q32" si="1">CONCATENATE(O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30)</f>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;NewRecord+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+S2&amp;~S1&amp;~S0&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~reset+</v>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;NewRecord+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+S2&amp;~S1&amp;~S0&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
       </c>
       <c r="P32" s="23" t="str">
         <f t="shared" ref="P32" si="2">CONCATENATE(P2,P3,P4,P5,P6,P7,P8,P9,P10,P11,P12,P13,P14,P15,P16,P17,P18,P19,P20,P21,P22,P23,P24,P25,P26,P27,P28,P29,P30)</f>
-        <v>~S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~reset+~S2&amp;S1&amp;~S0&amp;start&amp;~stop&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
+        <v>~S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset+~S2&amp;S1&amp;~S0&amp;start&amp;~stop&amp;~store&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~store&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;store&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;~store&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
       </c>
       <c r="Q32" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>~S2&amp;~S1&amp;~S0&amp;~reset+~S2&amp;~S1&amp;S0&amp;~start&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~reset+~S2&amp;S1&amp;S0&amp;start&amp;~stop&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+S2&amp;~S1&amp;~S0&amp;~reset+S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
+        <v>~S2&amp;~S1&amp;~S0&amp;~reset+~S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+~S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~store&amp;~reset+~S2&amp;S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+S2&amp;~S1&amp;~S0&amp;~reset+S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset+~S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
       </c>
     </row>
     <row r="34" spans="3:15" ht="17">
-      <c r="E34" s="92" t="s">
+      <c r="E34" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
     </row>
     <row r="35" spans="3:15" ht="17">
       <c r="C35" s="14" t="s">
@@ -5543,8 +5625,8 @@
   </sheetPr>
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -5560,30 +5642,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17">
-      <c r="A1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82" t="s">
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="94" t="s">
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="96"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="98"/>
       <c r="S1" s="49"/>
       <c r="T1" s="49"/>
       <c r="U1" s="49"/>
@@ -5746,23 +5828,25 @@
       <c r="Y4" s="41"/>
     </row>
     <row r="5" spans="1:25" ht="17">
-      <c r="A5" s="33" t="str">
+      <c r="A5" s="33">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B5" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="B5" s="33">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C5" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="C5" s="33">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D5" s="33" t="str">
+        <v>1</v>
+      </c>
+      <c r="D5" s="33">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E5" s="34"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="34">
+        <v>2</v>
+      </c>
       <c r="F5" s="35"/>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
@@ -5773,8 +5857,12 @@
       <c r="M5" s="45"/>
       <c r="N5" s="47"/>
       <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
+      <c r="P5" s="48">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="48">
+        <v>1</v>
+      </c>
       <c r="R5" s="48"/>
       <c r="S5" s="48"/>
       <c r="T5" s="48"/>
@@ -5785,23 +5873,25 @@
       <c r="Y5" s="48"/>
     </row>
     <row r="6" spans="1:25" ht="17">
-      <c r="A6" s="37" t="str">
+      <c r="A6" s="37">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B6" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="B6" s="37">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="C6" s="37">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D6" s="37" t="str">
+        <v>1</v>
+      </c>
+      <c r="D6" s="37">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E6" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="39">
+        <v>3</v>
+      </c>
       <c r="F6" s="40"/>
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
@@ -5812,7 +5902,9 @@
       <c r="M6" s="46"/>
       <c r="N6" s="40"/>
       <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
+      <c r="P6" s="41">
+        <v>1</v>
+      </c>
       <c r="Q6" s="41"/>
       <c r="R6" s="41"/>
       <c r="S6" s="41"/>
@@ -5824,23 +5916,25 @@
       <c r="Y6" s="41"/>
     </row>
     <row r="7" spans="1:25" ht="17">
-      <c r="A7" s="33" t="str">
+      <c r="A7" s="33">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B7" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="B7" s="33">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C7" s="33" t="str">
+        <v>1</v>
+      </c>
+      <c r="C7" s="33">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D7" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="D7" s="33">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E7" s="34"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="34">
+        <v>4</v>
+      </c>
       <c r="F7" s="35"/>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -5849,9 +5943,15 @@
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
       <c r="M7" s="45"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
+      <c r="N7" s="47">
+        <v>1</v>
+      </c>
+      <c r="O7" s="48">
+        <v>1</v>
+      </c>
+      <c r="P7" s="48">
+        <v>1</v>
+      </c>
       <c r="Q7" s="48"/>
       <c r="R7" s="48"/>
       <c r="S7" s="48"/>
@@ -5863,23 +5963,25 @@
       <c r="Y7" s="48"/>
     </row>
     <row r="8" spans="1:25" ht="17">
-      <c r="A8" s="37" t="str">
+      <c r="A8" s="37">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B8" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="B8" s="37">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C8" s="37" t="str">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D8" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="D8" s="37">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E8" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="39">
+        <v>5</v>
+      </c>
       <c r="F8" s="40"/>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
@@ -6799,16 +6901,16 @@
       <c r="Y31" s="48"/>
     </row>
     <row r="32" spans="1:25" ht="17">
-      <c r="F32" s="88" t="s">
+      <c r="F32" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -6874,8 +6976,8 @@
   </sheetPr>
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView topLeftCell="J1" zoomScale="211" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -7194,15 +7296,15 @@
       <c r="A4" s="5"/>
       <c r="B4" s="8" t="str">
         <f>IF(输出函数真值表!B5=1,输出函数真值表!B$2&amp;"&amp;",IF(输出函数真值表!B5=0,"~"&amp;输出函数真值表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>IF(输出函数真值表!C5=1,输出函数真值表!C$2&amp;"&amp;",IF(输出函数真值表!C5=0,"~"&amp;输出函数真值表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S1&amp;</v>
       </c>
       <c r="D4" s="9" t="str">
         <f>IF(输出函数真值表!D5=1,输出函数真值表!D$2&amp;"&amp;",IF(输出函数真值表!D5=0,"~"&amp;输出函数真值表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S0&amp;</v>
       </c>
       <c r="E4" s="7" t="str">
         <f>IF(输出函数真值表!F5&lt;&gt;"",IF(输出函数真值表!F5=1,输出函数真值表!F$2&amp;"&amp;",IF(输出函数真值表!F5=0,"~"&amp;输出函数真值表!F$2&amp;"&amp;","")),"")</f>
@@ -7238,7 +7340,7 @@
       </c>
       <c r="M4" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S2&amp;S1&amp;~S0</v>
       </c>
       <c r="N4" s="19" t="str">
         <f>IF(输出函数真值表!N5=1,$M4&amp;"+","")</f>
@@ -7250,11 +7352,11 @@
       </c>
       <c r="P4" s="19" t="str">
         <f>IF(输出函数真值表!P5=1,$M4&amp;"+","")</f>
-        <v/>
+        <v>~S2&amp;S1&amp;~S0+</v>
       </c>
       <c r="Q4" s="19" t="str">
         <f>IF(输出函数真值表!Q5=1,$M4&amp;"+","")</f>
-        <v/>
+        <v>~S2&amp;S1&amp;~S0+</v>
       </c>
       <c r="R4" s="19" t="str">
         <f>IF(输出函数真值表!R5=1,$M4&amp;"+","")</f>
@@ -7293,15 +7395,15 @@
       <c r="A5" s="5"/>
       <c r="B5" s="8" t="str">
         <f>IF(输出函数真值表!B6=1,输出函数真值表!B$2&amp;"&amp;",IF(输出函数真值表!B6=0,"~"&amp;输出函数真值表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>IF(输出函数真值表!C6=1,输出函数真值表!C$2&amp;"&amp;",IF(输出函数真值表!C6=0,"~"&amp;输出函数真值表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S1&amp;</v>
       </c>
       <c r="D5" s="9" t="str">
         <f>IF(输出函数真值表!D6=1,输出函数真值表!D$2&amp;"&amp;",IF(输出函数真值表!D6=0,"~"&amp;输出函数真值表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>IF(输出函数真值表!F6&lt;&gt;"",IF(输出函数真值表!F6=1,输出函数真值表!F$2&amp;"&amp;",IF(输出函数真值表!F6=0,"~"&amp;输出函数真值表!F$2&amp;"&amp;","")),"")</f>
@@ -7337,7 +7439,7 @@
       </c>
       <c r="M5" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S2&amp;S1&amp;S0</v>
       </c>
       <c r="N5" s="19" t="str">
         <f>IF(输出函数真值表!N6=1,$M5&amp;"+","")</f>
@@ -7349,7 +7451,7 @@
       </c>
       <c r="P5" s="19" t="str">
         <f>IF(输出函数真值表!P6=1,$M5&amp;"+","")</f>
-        <v/>
+        <v>~S2&amp;S1&amp;S0+</v>
       </c>
       <c r="Q5" s="19" t="str">
         <f>IF(输出函数真值表!Q6=1,$M5&amp;"+","")</f>
@@ -7392,15 +7494,15 @@
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="str">
         <f>IF(输出函数真值表!B7=1,输出函数真值表!B$2&amp;"&amp;",IF(输出函数真值表!B7=0,"~"&amp;输出函数真值表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S2&amp;</v>
       </c>
       <c r="C6" s="8" t="str">
         <f>IF(输出函数真值表!C7=1,输出函数真值表!C$2&amp;"&amp;",IF(输出函数真值表!C7=0,"~"&amp;输出函数真值表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="D6" s="9" t="str">
         <f>IF(输出函数真值表!D7=1,输出函数真值表!D$2&amp;"&amp;",IF(输出函数真值表!D7=0,"~"&amp;输出函数真值表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S0&amp;</v>
       </c>
       <c r="E6" s="7" t="str">
         <f>IF(输出函数真值表!F7&lt;&gt;"",IF(输出函数真值表!F7=1,输出函数真值表!F$2&amp;"&amp;",IF(输出函数真值表!F7=0,"~"&amp;输出函数真值表!F$2&amp;"&amp;","")),"")</f>
@@ -7436,19 +7538,19 @@
       </c>
       <c r="M6" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S2&amp;~S1&amp;~S0</v>
       </c>
       <c r="N6" s="19" t="str">
         <f>IF(输出函数真值表!N7=1,$M6&amp;"+","")</f>
-        <v/>
+        <v>S2&amp;~S1&amp;~S0+</v>
       </c>
       <c r="O6" s="19" t="str">
         <f>IF(输出函数真值表!O7=1,$M6&amp;"+","")</f>
-        <v/>
+        <v>S2&amp;~S1&amp;~S0+</v>
       </c>
       <c r="P6" s="19" t="str">
         <f>IF(输出函数真值表!P7=1,$M6&amp;"+","")</f>
-        <v/>
+        <v>S2&amp;~S1&amp;~S0+</v>
       </c>
       <c r="Q6" s="19" t="str">
         <f>IF(输出函数真值表!Q7=1,$M6&amp;"+","")</f>
@@ -7491,15 +7593,15 @@
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="str">
         <f>IF(输出函数真值表!B8=1,输出函数真值表!B$2&amp;"&amp;",IF(输出函数真值表!B8=0,"~"&amp;输出函数真值表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S2&amp;</v>
       </c>
       <c r="C7" s="8" t="str">
         <f>IF(输出函数真值表!C8=1,输出函数真值表!C$2&amp;"&amp;",IF(输出函数真值表!C8=0,"~"&amp;输出函数真值表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="D7" s="9" t="str">
         <f>IF(输出函数真值表!D8=1,输出函数真值表!D$2&amp;"&amp;",IF(输出函数真值表!D8=0,"~"&amp;输出函数真值表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>IF(输出函数真值表!F8&lt;&gt;"",IF(输出函数真值表!F8=1,输出函数真值表!F$2&amp;"&amp;",IF(输出函数真值表!F8=0,"~"&amp;输出函数真值表!F$2&amp;"&amp;","")),"")</f>
@@ -7535,7 +7637,7 @@
       </c>
       <c r="M7" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S2&amp;~S1&amp;S0</v>
       </c>
       <c r="N7" s="19" t="str">
         <f>IF(输出函数真值表!N8=1,$M7&amp;"+","")</f>
@@ -9933,36 +10035,36 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="17">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="97"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="99"/>
       <c r="N31" s="21" t="str">
         <f t="shared" ref="N31:Y31" si="1">IF(LEN(N32)&gt;1,LEFT(N32,LEN(N32)-1),"")</f>
-        <v/>
+        <v>S2&amp;~S1&amp;~S0</v>
       </c>
       <c r="O31" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>~S2&amp;~S1&amp;~S0</v>
+        <v>~S2&amp;~S1&amp;~S0+S2&amp;~S1&amp;~S0</v>
       </c>
       <c r="P31" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>~S2&amp;~S1&amp;~S0+~S2&amp;~S1&amp;S0</v>
+        <v>~S2&amp;~S1&amp;~S0+~S2&amp;~S1&amp;S0+~S2&amp;S1&amp;~S0+~S2&amp;S1&amp;S0+S2&amp;~S1&amp;~S0</v>
       </c>
       <c r="Q31" s="22" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~S2&amp;S1&amp;~S0</v>
       </c>
       <c r="R31" s="22" t="str">
         <f t="shared" si="1"/>
@@ -10013,19 +10115,19 @@
       <c r="M32" s="13"/>
       <c r="N32" s="23" t="str">
         <f>CONCATENATE(N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19,N20,N21,N22,N23,N24,N25,N26,N27,N28,N29,N30)</f>
-        <v/>
+        <v>S2&amp;~S1&amp;~S0+</v>
       </c>
       <c r="O32" s="23" t="str">
         <f t="shared" ref="O32:Y32" si="2">CONCATENATE(O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30)</f>
-        <v>~S2&amp;~S1&amp;~S0+</v>
+        <v>~S2&amp;~S1&amp;~S0+S2&amp;~S1&amp;~S0+</v>
       </c>
       <c r="P32" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>~S2&amp;~S1&amp;~S0+~S2&amp;~S1&amp;S0+</v>
+        <v>~S2&amp;~S1&amp;~S0+~S2&amp;~S1&amp;S0+~S2&amp;S1&amp;~S0+~S2&amp;S1&amp;S0+S2&amp;~S1&amp;~S0+</v>
       </c>
       <c r="Q32" s="23" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~S2&amp;S1&amp;~S0+</v>
       </c>
       <c r="R32" s="23" t="str">
         <f t="shared" si="2"/>
@@ -10066,19 +10168,19 @@
       </c>
     </row>
     <row r="37" spans="4:17" ht="17">
-      <c r="D37" s="92" t="s">
+      <c r="D37" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="92"/>
-      <c r="N37" s="92"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="94"/>
       <c r="Q37" s="25" t="s">
         <v>33</v>
       </c>

--- a/数字逻辑与数字系统设计/6-2 运动码表系统设计/同步时序电路状态转换表-3位.xlsx
+++ b/数字逻辑与数字系统设计/6-2 运动码表系统设计/同步时序电路状态转换表-3位.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franky/数电实验/数字逻辑与数字系统设计/6-2 运动码表系统设计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C134878-EF8E-714D-8562-C1F2821A5A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6F8586-87D9-F842-97E1-F5D3ED8C0AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="状态转换表" sheetId="1" r:id="rId1"/>
@@ -186,6 +186,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -193,12 +194,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -206,6 +209,7 @@
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -213,6 +217,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -220,6 +225,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -227,6 +233,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -234,6 +241,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -241,18 +249,21 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -261,6 +272,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -818,7 +830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -861,7 +873,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -894,16 +906,10 @@
     <xf numFmtId="176" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -915,9 +921,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -928,9 +931,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -948,10 +948,10 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -966,7 +966,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1035,13 +1035,10 @@
     <xf numFmtId="176" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1065,10 +1062,10 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1789,1611 +1786,1528 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V8" sqref="V8"/>
+      <selection pane="bottomLeft" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="3.6640625" style="26" customWidth="1"/>
-    <col min="5" max="6" width="7.6640625" style="27" customWidth="1"/>
-    <col min="7" max="9" width="6.6640625" style="27" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="27" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" style="27" customWidth="1"/>
-    <col min="12" max="13" width="3.5" style="27" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" style="27" customWidth="1"/>
-    <col min="15" max="17" width="3.6640625" style="26" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" style="27" customWidth="1"/>
+    <col min="1" max="4" width="3.6640625" style="25" customWidth="1"/>
+    <col min="5" max="6" width="7.6640625" style="25" customWidth="1"/>
+    <col min="7" max="9" width="6.6640625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="25" customWidth="1"/>
+    <col min="12" max="13" width="3.5" style="25" customWidth="1"/>
+    <col min="14" max="14" width="7.83203125" style="25" customWidth="1"/>
+    <col min="15" max="18" width="3.6640625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84" t="s">
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="87" t="s">
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="89"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="84"/>
     </row>
     <row r="2" spans="1:18" ht="30">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="73" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="74" t="s">
+      <c r="O2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="74" t="s">
+      <c r="P2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="74" t="s">
+      <c r="Q2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="79" t="s">
+      <c r="R2" s="74" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="17">
-      <c r="A3" s="32" t="str">
+      <c r="A3" s="30" t="str">
         <f t="shared" ref="A3:A14" si="0">IF(ISNUMBER($E3),IF(MOD($E3,16)/8&gt;=1,1,0),"")</f>
         <v/>
       </c>
-      <c r="B3" s="32" t="str">
+      <c r="B3" s="30" t="str">
         <f t="shared" ref="B3:B14" si="1">IF(ISNUMBER($E3),IF(MOD($E3,8)/4&gt;=1,1,0),"")</f>
         <v/>
       </c>
-      <c r="C3" s="32" t="str">
+      <c r="C3" s="30" t="str">
         <f t="shared" ref="C3:C14" si="2">IF(ISNUMBER($E3),IF(MOD($E3,4)/2&gt;=1,1,0),"")</f>
         <v/>
       </c>
-      <c r="D3" s="33" t="str">
+      <c r="D3" s="30" t="str">
         <f t="shared" ref="D3:D14" si="3">IF(ISNUMBER($E3),MOD($E3,2),"")</f>
         <v/>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36">
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33">
         <v>1</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="75">
-        <v>0</v>
-      </c>
-      <c r="O3" s="32">
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="70">
+        <v>0</v>
+      </c>
+      <c r="O3" s="30">
         <f t="shared" ref="O3:O14" si="4">IF(ISNUMBER($N3),IF(MOD($N3,16)/8&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="P3" s="32">
+      <c r="P3" s="30">
         <f t="shared" ref="P3:P14" si="5">IF(ISNUMBER($N3),IF(MOD($N3,8)/4&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="32">
+      <c r="Q3" s="30">
         <f t="shared" ref="Q3:Q14" si="6">IF(ISNUMBER($N3),IF(MOD($N3,4)/2&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="R3" s="33">
+      <c r="R3" s="30">
         <f t="shared" ref="R3:R14" si="7">IF(ISNUMBER($N3),MOD($N3,2),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17">
-      <c r="A4" s="37">
+      <c r="A4" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E4" s="39">
-        <v>0</v>
-      </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41">
-        <v>0</v>
-      </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="77">
+      <c r="E4" s="35">
+        <v>0</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37">
+        <v>0</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="72">
         <v>1</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="37">
+      <c r="Q4" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R4" s="38">
+      <c r="R4" s="34">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="17">
-      <c r="A5" s="32">
+      <c r="A5" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="31">
         <v>1</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="43">
         <v>1</v>
       </c>
-      <c r="G5" s="48">
-        <v>0</v>
-      </c>
-      <c r="H5" s="48">
-        <v>0</v>
-      </c>
-      <c r="I5" s="48">
-        <v>0</v>
-      </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="75">
+      <c r="G5" s="44">
+        <v>0</v>
+      </c>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44">
+        <v>0</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="70">
         <v>2</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P5" s="32">
+      <c r="P5" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="32">
+      <c r="Q5" s="30">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R5" s="33">
+      <c r="R5" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="17">
-      <c r="A6" s="37">
+      <c r="A6" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="34">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="35">
         <v>1</v>
       </c>
-      <c r="F6" s="40">
-        <v>0</v>
-      </c>
-      <c r="G6" s="41">
+      <c r="F6" s="36">
+        <v>0</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37">
+        <v>0</v>
+      </c>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="72">
         <v>1</v>
       </c>
-      <c r="H6" s="41">
-        <v>0</v>
-      </c>
-      <c r="I6" s="41">
-        <v>0</v>
-      </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="77">
-        <v>1</v>
-      </c>
-      <c r="O6" s="37">
+      <c r="O6" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R6" s="38">
+      <c r="R6" s="34">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17">
-      <c r="A7" s="32">
+      <c r="A7" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="33">
+        <v>1</v>
+      </c>
+      <c r="D7" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="31">
+        <v>2</v>
+      </c>
+      <c r="F7" s="43">
+        <v>1</v>
+      </c>
+      <c r="G7" s="44">
+        <v>0</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44">
+        <v>0</v>
+      </c>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="70">
+        <v>2</v>
+      </c>
+      <c r="O7" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="30">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R7" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="17">
+      <c r="A8" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B8" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="35">
+        <v>2</v>
+      </c>
+      <c r="F8" s="36">
+        <v>0</v>
+      </c>
+      <c r="G8" s="37">
+        <v>1</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37">
+        <v>0</v>
+      </c>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="72">
+        <v>3</v>
+      </c>
+      <c r="O8" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="34">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="17">
+      <c r="A9" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B9" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="31">
+        <v>2</v>
+      </c>
+      <c r="F9" s="43">
+        <v>0</v>
+      </c>
+      <c r="G9" s="44">
+        <v>0</v>
+      </c>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44">
+        <v>0</v>
+      </c>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="70">
+        <v>2</v>
+      </c>
+      <c r="O9" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="30">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R9" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="17">
+      <c r="A10" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B10" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="34">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E10" s="35">
+        <v>3</v>
+      </c>
+      <c r="F10" s="36">
         <v>1</v>
       </c>
-      <c r="F7" s="47">
-        <v>0</v>
-      </c>
-      <c r="G7" s="48">
-        <v>0</v>
-      </c>
-      <c r="H7" s="48">
+      <c r="G10" s="37">
+        <v>0</v>
+      </c>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37">
+        <v>0</v>
+      </c>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="72">
         <v>1</v>
       </c>
-      <c r="I7" s="48">
-        <v>0</v>
-      </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="75">
-        <v>1</v>
-      </c>
-      <c r="O7" s="32">
+      <c r="O10" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P7" s="32">
+      <c r="P10" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="32">
+      <c r="Q10" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R10" s="34">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="17">
-      <c r="A8" s="37">
+    <row r="11" spans="1:18" ht="17">
+      <c r="A11" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B11" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C11" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D11" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="39">
-        <v>2</v>
-      </c>
-      <c r="F8" s="40">
         <v>1</v>
       </c>
-      <c r="G8" s="41">
-        <v>0</v>
-      </c>
-      <c r="H8" s="41">
-        <v>0</v>
-      </c>
-      <c r="I8" s="41">
-        <v>0</v>
-      </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="77">
-        <v>2</v>
-      </c>
-      <c r="O8" s="37">
+      <c r="E11" s="31">
+        <v>3</v>
+      </c>
+      <c r="F11" s="43">
+        <v>0</v>
+      </c>
+      <c r="G11" s="44">
+        <v>1</v>
+      </c>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44">
+        <v>0</v>
+      </c>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="70">
+        <v>3</v>
+      </c>
+      <c r="O11" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P8" s="37">
+      <c r="P11" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="37">
+      <c r="Q11" s="30">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R8" s="38">
+      <c r="R11" s="30">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="17">
-      <c r="A9" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="17">
+      <c r="A12" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B12" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C12" s="34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D12" s="34">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="34">
-        <v>2</v>
-      </c>
-      <c r="F9" s="47">
-        <v>0</v>
-      </c>
-      <c r="G9" s="48">
         <v>1</v>
       </c>
-      <c r="H9" s="48">
-        <v>0</v>
-      </c>
-      <c r="I9" s="48">
-        <v>0</v>
-      </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="75">
+      <c r="E12" s="35">
         <v>3</v>
       </c>
-      <c r="O9" s="32">
+      <c r="F12" s="36">
+        <v>0</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0</v>
+      </c>
+      <c r="H12" s="37">
+        <v>1</v>
+      </c>
+      <c r="I12" s="37">
+        <v>0</v>
+      </c>
+      <c r="J12" s="37">
+        <v>1</v>
+      </c>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="72">
+        <v>4</v>
+      </c>
+      <c r="O12" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P9" s="32">
+      <c r="P12" s="34">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="34">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="17">
+      <c r="A13" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B13" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="30">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R9" s="33">
+      <c r="D13" s="30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="31">
+        <v>3</v>
+      </c>
+      <c r="F13" s="43">
+        <v>0</v>
+      </c>
+      <c r="G13" s="44">
+        <v>0</v>
+      </c>
+      <c r="H13" s="44">
+        <v>1</v>
+      </c>
+      <c r="I13" s="44">
+        <v>0</v>
+      </c>
+      <c r="J13" s="44">
+        <v>0</v>
+      </c>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="70">
+        <v>5</v>
+      </c>
+      <c r="O13" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="30">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="30">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="17">
-      <c r="A10" s="37">
+    <row r="14" spans="1:18" ht="17">
+      <c r="A14" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B14" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="37">
+        <v>1</v>
+      </c>
+      <c r="C14" s="34">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="35">
+        <v>4</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37">
+        <v>0</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="72">
+        <v>5</v>
+      </c>
+      <c r="O14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="34">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D10" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="39">
-        <v>2</v>
-      </c>
-      <c r="F10" s="40">
-        <v>0</v>
-      </c>
-      <c r="G10" s="41">
-        <v>0</v>
-      </c>
-      <c r="H10" s="41">
-        <v>1</v>
-      </c>
-      <c r="I10" s="41">
-        <v>0</v>
-      </c>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="77">
-        <v>2</v>
-      </c>
-      <c r="O10" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="37">
+      <c r="Q14" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="R10" s="38">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="17">
-      <c r="A11" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B11" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="32">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D11" s="33">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E11" s="34">
-        <v>3</v>
-      </c>
-      <c r="F11" s="47">
-        <v>1</v>
-      </c>
-      <c r="G11" s="48">
-        <v>0</v>
-      </c>
-      <c r="H11" s="48">
-        <v>0</v>
-      </c>
-      <c r="I11" s="48">
-        <v>0</v>
-      </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="75">
-        <v>1</v>
-      </c>
-      <c r="O11" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="33">
+        <v>0</v>
+      </c>
+      <c r="R14" s="34">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="17">
-      <c r="A12" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B12" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="37">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D12" s="38">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E12" s="39">
-        <v>3</v>
-      </c>
-      <c r="F12" s="40">
-        <v>0</v>
-      </c>
-      <c r="G12" s="41">
-        <v>1</v>
-      </c>
-      <c r="H12" s="41">
-        <v>0</v>
-      </c>
-      <c r="I12" s="41">
-        <v>0</v>
-      </c>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="77">
-        <v>3</v>
-      </c>
-      <c r="O12" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="37">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="R12" s="38">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="17">
-      <c r="A13" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B13" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="32">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D13" s="33">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E13" s="34">
-        <v>3</v>
-      </c>
-      <c r="F13" s="47">
-        <v>0</v>
-      </c>
-      <c r="G13" s="48">
-        <v>0</v>
-      </c>
-      <c r="H13" s="48">
-        <v>1</v>
-      </c>
-      <c r="I13" s="48">
-        <v>0</v>
-      </c>
-      <c r="J13" s="48">
-        <v>1</v>
-      </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="75">
-        <v>4</v>
-      </c>
-      <c r="O13" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="32">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="33">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="17">
-      <c r="A14" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B14" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="37">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D14" s="38">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E14" s="39">
-        <v>3</v>
-      </c>
-      <c r="F14" s="40">
-        <v>0</v>
-      </c>
-      <c r="G14" s="41">
-        <v>0</v>
-      </c>
-      <c r="H14" s="41">
-        <v>1</v>
-      </c>
-      <c r="I14" s="41">
-        <v>0</v>
-      </c>
-      <c r="J14" s="41">
-        <v>0</v>
-      </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="77">
-        <v>5</v>
-      </c>
-      <c r="O14" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="37">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="38">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
     <row r="15" spans="1:18" ht="17">
-      <c r="A15" s="32">
+      <c r="A15" s="30">
         <f t="shared" ref="A15:A17" si="8">IF(ISNUMBER($E15),IF(MOD($E15,16)/8&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="30">
         <f t="shared" ref="B15:B17" si="9">IF(ISNUMBER($E15),IF(MOD($E15,8)/4&gt;=1,1,0),"")</f>
         <v>1</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="30">
         <f t="shared" ref="C15:C17" si="10">IF(ISNUMBER($E15),IF(MOD($E15,4)/2&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="30">
         <f t="shared" ref="D15:D17" si="11">IF(ISNUMBER($E15),MOD($E15,2),"")</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="34">
-        <v>4</v>
-      </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48">
-        <v>0</v>
-      </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="75">
+        <v>1</v>
+      </c>
+      <c r="E15" s="31">
         <v>5</v>
       </c>
-      <c r="O15" s="32">
+      <c r="F15" s="43">
+        <v>1</v>
+      </c>
+      <c r="G15" s="44">
+        <v>0</v>
+      </c>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44">
+        <v>0</v>
+      </c>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="70">
+        <v>1</v>
+      </c>
+      <c r="O15" s="30">
         <f t="shared" ref="O15:O31" si="12">IF(ISNUMBER($N15),IF(MOD($N15,16)/8&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="P15" s="32">
+      <c r="P15" s="30">
         <f t="shared" ref="P15:P31" si="13">IF(ISNUMBER($N15),IF(MOD($N15,8)/4&gt;=1,1,0),"")</f>
-        <v>1</v>
-      </c>
-      <c r="Q15" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="30">
         <f t="shared" ref="Q15:Q31" si="14">IF(ISNUMBER($N15),IF(MOD($N15,4)/2&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="R15" s="33">
+      <c r="R15" s="30">
         <f t="shared" ref="R15:R31" si="15">IF(ISNUMBER($N15),MOD($N15,2),"")</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="17">
-      <c r="A16" s="37">
+      <c r="A16" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="34">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="34">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="35">
         <v>5</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="36">
+        <v>0</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37">
+        <v>0</v>
+      </c>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="72">
+        <v>5</v>
+      </c>
+      <c r="O16" s="34">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="34">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="G16" s="41">
-        <v>0</v>
-      </c>
-      <c r="H16" s="41">
-        <v>0</v>
-      </c>
-      <c r="I16" s="41">
-        <v>0</v>
-      </c>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="77">
-        <v>1</v>
-      </c>
-      <c r="O16" s="37">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="37">
+      <c r="Q16" s="34">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R16" s="38">
+      <c r="R16" s="34">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="17">
-      <c r="A17" s="32">
+      <c r="A17" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="30">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="30">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="C17" s="32">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="33">
+      <c r="D17" s="30">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E17" s="34">
-        <v>5</v>
-      </c>
-      <c r="F17" s="47">
-        <v>0</v>
-      </c>
-      <c r="G17" s="48">
+      <c r="E17" s="31">
+        <v>3</v>
+      </c>
+      <c r="F17" s="43">
+        <v>0</v>
+      </c>
+      <c r="G17" s="44">
+        <v>0</v>
+      </c>
+      <c r="H17" s="44">
+        <v>0</v>
+      </c>
+      <c r="I17" s="44">
+        <v>0</v>
+      </c>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="70">
+        <v>3</v>
+      </c>
+      <c r="O17" s="30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="30">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="H17" s="48">
-        <v>0</v>
-      </c>
-      <c r="I17" s="48">
-        <v>0</v>
-      </c>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="75">
-        <v>5</v>
-      </c>
-      <c r="O17" s="32">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="32">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="Q17" s="32">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="33">
+      <c r="R17" s="30">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="17">
-      <c r="A18" s="37">
+      <c r="A18" s="34" t="str">
         <f t="shared" ref="A18:A31" si="16">IF(ISNUMBER($E18),IF(MOD($E18,16)/8&gt;=1,1,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="B18" s="37">
+        <v/>
+      </c>
+      <c r="B18" s="34" t="str">
         <f t="shared" ref="B18:B31" si="17">IF(ISNUMBER($E18),IF(MOD($E18,8)/4&gt;=1,1,0),"")</f>
-        <v>1</v>
-      </c>
-      <c r="C18" s="37">
+        <v/>
+      </c>
+      <c r="C18" s="34" t="str">
         <f t="shared" ref="C18:C31" si="18">IF(ISNUMBER($E18),IF(MOD($E18,4)/2&gt;=1,1,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="38">
+        <v/>
+      </c>
+      <c r="D18" s="34" t="str">
         <f t="shared" ref="D18:D31" si="19">IF(ISNUMBER($E18),MOD($E18,2),"")</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="39">
-        <v>5</v>
-      </c>
-      <c r="F18" s="40">
-        <v>0</v>
-      </c>
-      <c r="G18" s="41">
-        <v>0</v>
-      </c>
-      <c r="H18" s="41">
-        <v>1</v>
-      </c>
-      <c r="I18" s="41">
-        <v>0</v>
-      </c>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="77">
-        <v>5</v>
-      </c>
-      <c r="O18" s="37">
+        <v/>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="34" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="37">
+        <v/>
+      </c>
+      <c r="P18" s="34" t="str">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="Q18" s="37">
+        <v/>
+      </c>
+      <c r="Q18" s="34" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="38">
+        <v/>
+      </c>
+      <c r="R18" s="34" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:18" ht="17">
-      <c r="A19" s="32">
+      <c r="A19" s="30" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="B19" s="32">
+        <v/>
+      </c>
+      <c r="B19" s="30" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="32">
+        <v/>
+      </c>
+      <c r="C19" s="30" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="33">
+        <v/>
+      </c>
+      <c r="D19" s="30" t="str">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E19" s="34">
-        <v>1</v>
-      </c>
-      <c r="F19" s="47">
-        <v>0</v>
-      </c>
-      <c r="G19" s="48">
-        <v>0</v>
-      </c>
-      <c r="H19" s="48">
-        <v>0</v>
-      </c>
-      <c r="I19" s="48">
-        <v>0</v>
-      </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="75">
-        <v>1</v>
-      </c>
-      <c r="O19" s="32">
+        <v/>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="30" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="32">
+        <v/>
+      </c>
+      <c r="P19" s="30" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="32">
+        <v/>
+      </c>
+      <c r="Q19" s="30" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="33">
+        <v/>
+      </c>
+      <c r="R19" s="30" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:18" ht="17">
-      <c r="A20" s="37">
+      <c r="A20" s="34" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="B20" s="37">
+        <v/>
+      </c>
+      <c r="B20" s="34" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="37">
+        <v/>
+      </c>
+      <c r="C20" s="34" t="str">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D20" s="38">
+        <v/>
+      </c>
+      <c r="D20" s="34" t="str">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="39">
-        <v>2</v>
-      </c>
-      <c r="F20" s="40">
-        <v>0</v>
-      </c>
-      <c r="G20" s="41">
-        <v>0</v>
-      </c>
-      <c r="H20" s="41">
-        <v>0</v>
-      </c>
-      <c r="I20" s="41">
-        <v>0</v>
-      </c>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="77">
-        <v>2</v>
-      </c>
-      <c r="O20" s="37">
+        <v/>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="34" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="37">
+        <v/>
+      </c>
+      <c r="P20" s="34" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="37">
+        <v/>
+      </c>
+      <c r="Q20" s="34" t="str">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R20" s="38">
+        <v/>
+      </c>
+      <c r="R20" s="34" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:18" ht="17">
-      <c r="A21" s="32">
+      <c r="A21" s="30" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="B21" s="32">
+        <v/>
+      </c>
+      <c r="B21" s="30" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C21" s="32">
+        <v/>
+      </c>
+      <c r="C21" s="30" t="str">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D21" s="33">
+        <v/>
+      </c>
+      <c r="D21" s="30" t="str">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E21" s="34">
-        <v>3</v>
-      </c>
-      <c r="F21" s="47">
-        <v>0</v>
-      </c>
-      <c r="G21" s="48">
-        <v>0</v>
-      </c>
-      <c r="H21" s="48">
-        <v>0</v>
-      </c>
-      <c r="I21" s="48">
-        <v>0</v>
-      </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="75">
-        <v>3</v>
-      </c>
-      <c r="O21" s="32">
+        <v/>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="30" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="32">
+        <v/>
+      </c>
+      <c r="P21" s="30" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="32">
+        <v/>
+      </c>
+      <c r="Q21" s="30" t="str">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R21" s="33">
+        <v/>
+      </c>
+      <c r="R21" s="30" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:18" ht="17">
-      <c r="A22" s="37">
+      <c r="A22" s="34" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="B22" s="37">
+        <v/>
+      </c>
+      <c r="B22" s="34" t="str">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="C22" s="37">
+        <v/>
+      </c>
+      <c r="C22" s="34" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="38">
+        <v/>
+      </c>
+      <c r="D22" s="34" t="str">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="E22" s="39">
-        <v>5</v>
-      </c>
-      <c r="F22" s="40">
-        <v>0</v>
-      </c>
-      <c r="G22" s="41">
-        <v>0</v>
-      </c>
-      <c r="H22" s="41">
-        <v>0</v>
-      </c>
-      <c r="I22" s="41">
-        <v>0</v>
-      </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="77">
-        <v>5</v>
-      </c>
-      <c r="O22" s="37">
+        <v/>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="34" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="37">
+        <v/>
+      </c>
+      <c r="P22" s="34" t="str">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="Q22" s="37">
+        <v/>
+      </c>
+      <c r="Q22" s="34" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="38">
+        <v/>
+      </c>
+      <c r="R22" s="34" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:18" ht="17">
-      <c r="A23" s="32" t="str">
+      <c r="A23" s="30" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="B23" s="32" t="str">
+      <c r="B23" s="30" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C23" s="32" t="str">
+      <c r="C23" s="30" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="D23" s="33" t="str">
+      <c r="D23" s="30" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="32" t="str">
+      <c r="E23" s="31"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="30" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P23" s="32" t="str">
+      <c r="P23" s="30" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="Q23" s="32" t="str">
+      <c r="Q23" s="30" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="R23" s="33" t="str">
+      <c r="R23" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:18" ht="17">
-      <c r="A24" s="37" t="str">
+      <c r="A24" s="34" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="B24" s="37" t="str">
+      <c r="B24" s="34" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C24" s="37" t="str">
+      <c r="C24" s="34" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="D24" s="38" t="str">
+      <c r="D24" s="34" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="37" t="str">
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="34" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P24" s="37" t="str">
+      <c r="P24" s="34" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="Q24" s="37" t="str">
+      <c r="Q24" s="34" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="R24" s="38" t="str">
+      <c r="R24" s="34" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:18" ht="17">
-      <c r="A25" s="32" t="str">
+      <c r="A25" s="30" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="B25" s="32" t="str">
+      <c r="B25" s="30" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C25" s="32" t="str">
+      <c r="C25" s="30" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="D25" s="33" t="str">
+      <c r="D25" s="30" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="32" t="str">
+      <c r="E25" s="31"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="30" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P25" s="32" t="str">
+      <c r="P25" s="30" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="Q25" s="32" t="str">
+      <c r="Q25" s="30" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="R25" s="33" t="str">
+      <c r="R25" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:18" ht="17">
-      <c r="A26" s="37" t="str">
+      <c r="A26" s="34" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="B26" s="37" t="str">
+      <c r="B26" s="34" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C26" s="37" t="str">
+      <c r="C26" s="34" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="D26" s="38" t="str">
+      <c r="D26" s="34" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="37" t="str">
+      <c r="E26" s="35"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="34" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P26" s="37" t="str">
+      <c r="P26" s="34" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="Q26" s="37" t="str">
+      <c r="Q26" s="34" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="R26" s="38" t="str">
+      <c r="R26" s="34" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:18" ht="17">
-      <c r="A27" s="32" t="str">
+      <c r="A27" s="30" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="B27" s="32" t="str">
+      <c r="B27" s="30" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C27" s="32" t="str">
+      <c r="C27" s="30" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="D27" s="33" t="str">
+      <c r="D27" s="30" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="32" t="str">
+      <c r="E27" s="31"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="30" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P27" s="32" t="str">
+      <c r="P27" s="30" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="Q27" s="32" t="str">
+      <c r="Q27" s="30" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="R27" s="33" t="str">
+      <c r="R27" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:18" ht="17">
-      <c r="A28" s="37" t="str">
+      <c r="A28" s="34" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="B28" s="37" t="str">
+      <c r="B28" s="34" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C28" s="37" t="str">
+      <c r="C28" s="34" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="D28" s="38" t="str">
+      <c r="D28" s="34" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="37" t="str">
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="34" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P28" s="37" t="str">
+      <c r="P28" s="34" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="Q28" s="37" t="str">
+      <c r="Q28" s="34" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="R28" s="38" t="str">
+      <c r="R28" s="34" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:18" ht="17">
-      <c r="A29" s="32" t="str">
+      <c r="A29" s="30" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="B29" s="32" t="str">
+      <c r="B29" s="30" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C29" s="32" t="str">
+      <c r="C29" s="30" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="D29" s="33" t="str">
+      <c r="D29" s="30" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="32" t="str">
+      <c r="E29" s="31"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="30" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P29" s="32" t="str">
+      <c r="P29" s="30" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="Q29" s="32" t="str">
+      <c r="Q29" s="30" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="R29" s="33" t="str">
+      <c r="R29" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:18" ht="17">
-      <c r="A30" s="37" t="str">
+      <c r="A30" s="34" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="B30" s="37" t="str">
+      <c r="B30" s="34" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C30" s="37" t="str">
+      <c r="C30" s="34" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="D30" s="38" t="str">
+      <c r="D30" s="34" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="37" t="str">
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="34" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P30" s="37" t="str">
+      <c r="P30" s="34" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="Q30" s="37" t="str">
+      <c r="Q30" s="34" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="R30" s="38" t="str">
+      <c r="R30" s="34" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:18" ht="17">
-      <c r="A31" s="32" t="str">
+      <c r="A31" s="30" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="B31" s="32" t="str">
+      <c r="B31" s="30" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C31" s="32" t="str">
+      <c r="C31" s="30" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="D31" s="33" t="str">
+      <c r="D31" s="30" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="32" t="str">
+      <c r="E31" s="31"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="30" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P31" s="32" t="str">
+      <c r="P31" s="30" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="Q31" s="32" t="str">
+      <c r="Q31" s="30" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="R31" s="33" t="str">
+      <c r="R31" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:18" ht="17">
-      <c r="F32" s="90" t="s">
+      <c r="F32" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3442,135 +3356,135 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="12" width="4.6640625" customWidth="1"/>
-    <col min="13" max="13" width="18.5" style="51" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="51" customWidth="1"/>
-    <col min="15" max="15" width="9.5" style="51" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="51" customWidth="1"/>
-    <col min="17" max="17" width="11.1640625" style="51" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="47" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="47" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="47" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" style="47" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="50" customFormat="1" ht="16">
-      <c r="A1" s="52" t="str">
+    <row r="1" spans="1:17" s="46" customFormat="1" ht="16">
+      <c r="A1" s="48" t="str">
         <f>状态转换表!A2</f>
         <v>S3</v>
       </c>
-      <c r="B1" s="52" t="str">
+      <c r="B1" s="48" t="str">
         <f>状态转换表!B2</f>
         <v>S2</v>
       </c>
-      <c r="C1" s="52" t="str">
+      <c r="C1" s="48" t="str">
         <f>状态转换表!C2</f>
         <v>S1</v>
       </c>
-      <c r="D1" s="53" t="str">
+      <c r="D1" s="49" t="str">
         <f>状态转换表!D2</f>
         <v>S0</v>
       </c>
-      <c r="E1" s="54" t="str">
+      <c r="E1" s="50" t="str">
         <f>状态转换表!F2</f>
         <v>start</v>
       </c>
-      <c r="F1" s="52" t="str">
+      <c r="F1" s="48" t="str">
         <f>状态转换表!G2</f>
         <v>stop</v>
       </c>
-      <c r="G1" s="52" t="str">
+      <c r="G1" s="48" t="str">
         <f>状态转换表!H2</f>
         <v>store</v>
       </c>
-      <c r="H1" s="52" t="str">
+      <c r="H1" s="48" t="str">
         <f>状态转换表!I2</f>
         <v>reset</v>
       </c>
-      <c r="I1" s="52" t="str">
+      <c r="I1" s="48" t="str">
         <f>状态转换表!J2</f>
         <v>NewRecord</v>
       </c>
-      <c r="J1" s="52">
+      <c r="J1" s="48">
         <f>状态转换表!K2</f>
         <v>0</v>
       </c>
-      <c r="K1" s="52">
+      <c r="K1" s="48">
         <f>状态转换表!L2</f>
         <v>0</v>
       </c>
-      <c r="L1" s="65">
+      <c r="L1" s="61">
         <f>状态转换表!M2</f>
         <v>0</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="67" t="str">
+      <c r="N1" s="63" t="str">
         <f>状态转换表!O2</f>
         <v>N3</v>
       </c>
-      <c r="O1" s="67" t="str">
+      <c r="O1" s="63" t="str">
         <f>状态转换表!P2</f>
         <v>N2</v>
       </c>
-      <c r="P1" s="67" t="str">
+      <c r="P1" s="63" t="str">
         <f>状态转换表!Q2</f>
         <v>N1</v>
       </c>
-      <c r="Q1" s="67" t="str">
+      <c r="Q1" s="63" t="str">
         <f>状态转换表!R2</f>
         <v>N0</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55" t="str">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51" t="str">
         <f>IF(状态转换表!B3=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B3=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C2" s="55" t="str">
+      <c r="C2" s="51" t="str">
         <f>IF(状态转换表!C3=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C3=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D2" s="56" t="str">
+      <c r="D2" s="52" t="str">
         <f>IF(状态转换表!D3=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D3=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E2" s="57" t="str">
+      <c r="E2" s="53" t="str">
         <f>IF(状态转换表!F3&lt;&gt;"",IF(状态转换表!F3=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F3=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F2" s="58" t="str">
+      <c r="F2" s="54" t="str">
         <f>IF(状态转换表!G3&lt;&gt;"",IF(状态转换表!G3=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G3=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G2" s="58" t="str">
+      <c r="G2" s="54" t="str">
         <f>IF(状态转换表!H3&lt;&gt;"",IF(状态转换表!H3=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H3=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H2" s="58" t="str">
+      <c r="H2" s="54" t="str">
         <f>IF(状态转换表!I3&lt;&gt;"",IF(状态转换表!I3=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I3=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v>reset&amp;</v>
       </c>
-      <c r="I2" s="58" t="str">
+      <c r="I2" s="54" t="str">
         <f>IF(状态转换表!J3&lt;&gt;"",IF(状态转换表!J3=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J3=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J2" s="58" t="str">
+      <c r="J2" s="54" t="str">
         <f>IF(状态转换表!K3&lt;&gt;"",IF(状态转换表!K3=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K3=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K2" s="58" t="str">
+      <c r="K2" s="54" t="str">
         <f>IF(状态转换表!L3&lt;&gt;"",IF(状态转换表!L3=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L3=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L2" s="68" t="str">
+      <c r="L2" s="64" t="str">
         <f>IF(状态转换表!M3&lt;&gt;"",IF(状态转换表!M3=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M3=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M2" s="69" t="str">
+      <c r="M2" s="65" t="str">
         <f>IF(LEN(CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2))=0,"",LEFT(CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2),LEN(CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2))-1))</f>
         <v>reset</v>
       </c>
@@ -3592,52 +3506,52 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="55"/>
-      <c r="B3" s="59" t="str">
+      <c r="A3" s="51"/>
+      <c r="B3" s="55" t="str">
         <f>IF(状态转换表!B4=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B4=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v>~S2&amp;</v>
       </c>
-      <c r="C3" s="59" t="str">
+      <c r="C3" s="55" t="str">
         <f>IF(状态转换表!C4=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C4=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v>~S1&amp;</v>
       </c>
-      <c r="D3" s="60" t="str">
+      <c r="D3" s="56" t="str">
         <f>IF(状态转换表!D4=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D4=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v>~S0&amp;</v>
       </c>
-      <c r="E3" s="61" t="str">
+      <c r="E3" s="57" t="str">
         <f>IF(状态转换表!F4&lt;&gt;"",IF(状态转换表!F4=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F4=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F3" s="59" t="str">
+      <c r="F3" s="55" t="str">
         <f>IF(状态转换表!G4&lt;&gt;"",IF(状态转换表!G4=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G4=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G3" s="59" t="str">
+      <c r="G3" s="55" t="str">
         <f>IF(状态转换表!H4&lt;&gt;"",IF(状态转换表!H4=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H4=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H3" s="59" t="str">
+      <c r="H3" s="55" t="str">
         <f>IF(状态转换表!I4&lt;&gt;"",IF(状态转换表!I4=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I4=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v>~reset&amp;</v>
       </c>
-      <c r="I3" s="59" t="str">
+      <c r="I3" s="55" t="str">
         <f>IF(状态转换表!J4&lt;&gt;"",IF(状态转换表!J4=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J4=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J3" s="59" t="str">
+      <c r="J3" s="55" t="str">
         <f>IF(状态转换表!K4&lt;&gt;"",IF(状态转换表!K4=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K4=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K3" s="59" t="str">
+      <c r="K3" s="55" t="str">
         <f>IF(状态转换表!L4&lt;&gt;"",IF(状态转换表!L4=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L4=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L3" s="70" t="str">
+      <c r="L3" s="66" t="str">
         <f>IF(状态转换表!M4&lt;&gt;"",IF(状态转换表!M4=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M4=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M3" s="69" t="str">
+      <c r="M3" s="65" t="str">
         <f t="shared" ref="M3:M30" si="0">IF(LEN(CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3))=0,"",LEFT(CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3),LEN(CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3))-1))</f>
         <v>~S2&amp;~S1&amp;~S0&amp;~reset</v>
       </c>
@@ -3659,54 +3573,54 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="55"/>
-      <c r="B4" s="59" t="str">
+      <c r="A4" s="51"/>
+      <c r="B4" s="55" t="str">
         <f>IF(状态转换表!B5=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B5=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v>~S2&amp;</v>
       </c>
-      <c r="C4" s="59" t="str">
+      <c r="C4" s="55" t="str">
         <f>IF(状态转换表!C5=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C5=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v>~S1&amp;</v>
       </c>
-      <c r="D4" s="60" t="str">
+      <c r="D4" s="56" t="str">
         <f>IF(状态转换表!D5=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D5=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v>S0&amp;</v>
       </c>
-      <c r="E4" s="61" t="str">
+      <c r="E4" s="57" t="str">
         <f>IF(状态转换表!F5&lt;&gt;"",IF(状态转换表!F5=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F5=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v>start&amp;</v>
       </c>
-      <c r="F4" s="59" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(状态转换表!G5&lt;&gt;"",IF(状态转换表!G5=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G5=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v>~stop&amp;</v>
       </c>
-      <c r="G4" s="59" t="str">
+      <c r="G4" s="55" t="str">
         <f>IF(状态转换表!H5&lt;&gt;"",IF(状态转换表!H5=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H5=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v>~store&amp;</v>
-      </c>
-      <c r="H4" s="59" t="str">
+        <v/>
+      </c>
+      <c r="H4" s="55" t="str">
         <f>IF(状态转换表!I5&lt;&gt;"",IF(状态转换表!I5=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I5=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v>~reset&amp;</v>
       </c>
-      <c r="I4" s="59" t="str">
+      <c r="I4" s="55" t="str">
         <f>IF(状态转换表!J5&lt;&gt;"",IF(状态转换表!J5=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J5=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J4" s="59" t="str">
+      <c r="J4" s="55" t="str">
         <f>IF(状态转换表!K5&lt;&gt;"",IF(状态转换表!K5=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K5=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K4" s="59" t="str">
+      <c r="K4" s="55" t="str">
         <f>IF(状态转换表!L5&lt;&gt;"",IF(状态转换表!L5=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L5=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L4" s="70" t="str">
+      <c r="L4" s="66" t="str">
         <f>IF(状态转换表!M5&lt;&gt;"",IF(状态转换表!M5=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M5=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M4" s="69" t="str">
+      <c r="M4" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset</v>
+        <v>~S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~reset</v>
       </c>
       <c r="N4" s="19" t="str">
         <f>IF(状态转换表!O5=1,$M4&amp;"+","")</f>
@@ -3718,7 +3632,7 @@
       </c>
       <c r="P4" s="19" t="str">
         <f>IF(状态转换表!Q5=1,$M4&amp;"+","")</f>
-        <v>~S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset+</v>
+        <v>~S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~reset+</v>
       </c>
       <c r="Q4" s="19" t="str">
         <f>IF(状态转换表!R5=1,$M4&amp;"+","")</f>
@@ -3726,54 +3640,54 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="55"/>
-      <c r="B5" s="59" t="str">
+      <c r="A5" s="51"/>
+      <c r="B5" s="55" t="str">
         <f>IF(状态转换表!B6=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B6=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v>~S2&amp;</v>
       </c>
-      <c r="C5" s="59" t="str">
+      <c r="C5" s="55" t="str">
         <f>IF(状态转换表!C6=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C6=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v>~S1&amp;</v>
       </c>
-      <c r="D5" s="60" t="str">
+      <c r="D5" s="56" t="str">
         <f>IF(状态转换表!D6=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D6=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v>S0&amp;</v>
       </c>
-      <c r="E5" s="61" t="str">
+      <c r="E5" s="57" t="str">
         <f>IF(状态转换表!F6&lt;&gt;"",IF(状态转换表!F6=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F6=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v>~start&amp;</v>
       </c>
-      <c r="F5" s="59" t="str">
+      <c r="F5" s="55" t="str">
         <f>IF(状态转换表!G6&lt;&gt;"",IF(状态转换表!G6=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G6=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v>stop&amp;</v>
-      </c>
-      <c r="G5" s="59" t="str">
+        <v/>
+      </c>
+      <c r="G5" s="55" t="str">
         <f>IF(状态转换表!H6&lt;&gt;"",IF(状态转换表!H6=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H6=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v>~store&amp;</v>
-      </c>
-      <c r="H5" s="59" t="str">
+        <v/>
+      </c>
+      <c r="H5" s="55" t="str">
         <f>IF(状态转换表!I6&lt;&gt;"",IF(状态转换表!I6=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I6=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v>~reset&amp;</v>
       </c>
-      <c r="I5" s="59" t="str">
+      <c r="I5" s="55" t="str">
         <f>IF(状态转换表!J6&lt;&gt;"",IF(状态转换表!J6=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J6=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J5" s="59" t="str">
+      <c r="J5" s="55" t="str">
         <f>IF(状态转换表!K6&lt;&gt;"",IF(状态转换表!K6=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K6=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K5" s="59" t="str">
+      <c r="K5" s="55" t="str">
         <f>IF(状态转换表!L6&lt;&gt;"",IF(状态转换表!L6=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L6=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L5" s="70" t="str">
+      <c r="L5" s="66" t="str">
         <f>IF(状态转换表!M6&lt;&gt;"",IF(状态转换表!M6=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M6=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M5" s="69" t="str">
+      <c r="M5" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset</v>
+        <v>~S2&amp;~S1&amp;S0&amp;~start&amp;~reset</v>
       </c>
       <c r="N5" s="19" t="str">
         <f>IF(状态转换表!O6=1,$M5&amp;"+","")</f>
@@ -3789,58 +3703,58 @@
       </c>
       <c r="Q5" s="19" t="str">
         <f>IF(状态转换表!R6=1,$M5&amp;"+","")</f>
-        <v>~S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+</v>
+        <v>~S2&amp;~S1&amp;S0&amp;~start&amp;~reset+</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="55"/>
-      <c r="B6" s="59" t="str">
+      <c r="A6" s="51"/>
+      <c r="B6" s="55" t="str">
         <f>IF(状态转换表!B7=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B7=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v>~S2&amp;</v>
       </c>
-      <c r="C6" s="59" t="str">
+      <c r="C6" s="55" t="str">
         <f>IF(状态转换表!C7=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C7=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v>~S1&amp;</v>
-      </c>
-      <c r="D6" s="60" t="str">
+        <v>S1&amp;</v>
+      </c>
+      <c r="D6" s="56" t="str">
         <f>IF(状态转换表!D7=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D7=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v>S0&amp;</v>
-      </c>
-      <c r="E6" s="61" t="str">
+        <v>~S0&amp;</v>
+      </c>
+      <c r="E6" s="57" t="str">
         <f>IF(状态转换表!F7&lt;&gt;"",IF(状态转换表!F7=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F7=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v>~start&amp;</v>
-      </c>
-      <c r="F6" s="59" t="str">
+        <v>start&amp;</v>
+      </c>
+      <c r="F6" s="55" t="str">
         <f>IF(状态转换表!G7&lt;&gt;"",IF(状态转换表!G7=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G7=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v>~stop&amp;</v>
       </c>
-      <c r="G6" s="59" t="str">
+      <c r="G6" s="55" t="str">
         <f>IF(状态转换表!H7&lt;&gt;"",IF(状态转换表!H7=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H7=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v>store&amp;</v>
-      </c>
-      <c r="H6" s="59" t="str">
+        <v/>
+      </c>
+      <c r="H6" s="55" t="str">
         <f>IF(状态转换表!I7&lt;&gt;"",IF(状态转换表!I7=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I7=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v>~reset&amp;</v>
       </c>
-      <c r="I6" s="59" t="str">
+      <c r="I6" s="55" t="str">
         <f>IF(状态转换表!J7&lt;&gt;"",IF(状态转换表!J7=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J7=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J6" s="59" t="str">
+      <c r="J6" s="55" t="str">
         <f>IF(状态转换表!K7&lt;&gt;"",IF(状态转换表!K7=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K7=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K6" s="59" t="str">
+      <c r="K6" s="55" t="str">
         <f>IF(状态转换表!L7&lt;&gt;"",IF(状态转换表!L7=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L7=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L6" s="70" t="str">
+      <c r="L6" s="66" t="str">
         <f>IF(状态转换表!M7&lt;&gt;"",IF(状态转换表!M7=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M7=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M6" s="69" t="str">
+      <c r="M6" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset</v>
+        <v>~S2&amp;S1&amp;~S0&amp;start&amp;~stop&amp;~reset</v>
       </c>
       <c r="N6" s="19" t="str">
         <f>IF(状态转换表!O7=1,$M6&amp;"+","")</f>
@@ -3852,62 +3766,62 @@
       </c>
       <c r="P6" s="19" t="str">
         <f>IF(状态转换表!Q7=1,$M6&amp;"+","")</f>
-        <v/>
+        <v>~S2&amp;S1&amp;~S0&amp;start&amp;~stop&amp;~reset+</v>
       </c>
       <c r="Q6" s="19" t="str">
         <f>IF(状态转换表!R7=1,$M6&amp;"+","")</f>
-        <v>~S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset+</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="55"/>
-      <c r="B7" s="59" t="str">
+      <c r="A7" s="51"/>
+      <c r="B7" s="55" t="str">
         <f>IF(状态转换表!B8=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B8=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v>~S2&amp;</v>
       </c>
-      <c r="C7" s="59" t="str">
+      <c r="C7" s="55" t="str">
         <f>IF(状态转换表!C8=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C8=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v>S1&amp;</v>
       </c>
-      <c r="D7" s="60" t="str">
+      <c r="D7" s="56" t="str">
         <f>IF(状态转换表!D8=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D8=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v>~S0&amp;</v>
       </c>
-      <c r="E7" s="61" t="str">
+      <c r="E7" s="57" t="str">
         <f>IF(状态转换表!F8&lt;&gt;"",IF(状态转换表!F8=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F8=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v>start&amp;</v>
-      </c>
-      <c r="F7" s="59" t="str">
+        <v>~start&amp;</v>
+      </c>
+      <c r="F7" s="55" t="str">
         <f>IF(状态转换表!G8&lt;&gt;"",IF(状态转换表!G8=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G8=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v>~stop&amp;</v>
-      </c>
-      <c r="G7" s="59" t="str">
+        <v>stop&amp;</v>
+      </c>
+      <c r="G7" s="55" t="str">
         <f>IF(状态转换表!H8&lt;&gt;"",IF(状态转换表!H8=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H8=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v>~store&amp;</v>
-      </c>
-      <c r="H7" s="59" t="str">
+        <v/>
+      </c>
+      <c r="H7" s="55" t="str">
         <f>IF(状态转换表!I8&lt;&gt;"",IF(状态转换表!I8=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I8=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v>~reset&amp;</v>
       </c>
-      <c r="I7" s="59" t="str">
+      <c r="I7" s="55" t="str">
         <f>IF(状态转换表!J8&lt;&gt;"",IF(状态转换表!J8=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J8=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J7" s="59" t="str">
+      <c r="J7" s="55" t="str">
         <f>IF(状态转换表!K8&lt;&gt;"",IF(状态转换表!K8=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K8=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K7" s="59" t="str">
+      <c r="K7" s="55" t="str">
         <f>IF(状态转换表!L8&lt;&gt;"",IF(状态转换表!L8=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L8=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L7" s="70" t="str">
+      <c r="L7" s="66" t="str">
         <f>IF(状态转换表!M8&lt;&gt;"",IF(状态转换表!M8=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M8=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M7" s="69" t="str">
+      <c r="M7" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;S1&amp;~S0&amp;start&amp;~stop&amp;~store&amp;~reset</v>
+        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~reset</v>
       </c>
       <c r="N7" s="19" t="str">
         <f>IF(状态转换表!O8=1,$M7&amp;"+","")</f>
@@ -3919,62 +3833,62 @@
       </c>
       <c r="P7" s="19" t="str">
         <f>IF(状态转换表!Q8=1,$M7&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;~S0&amp;start&amp;~stop&amp;~store&amp;~reset+</v>
+        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~reset+</v>
       </c>
       <c r="Q7" s="19" t="str">
         <f>IF(状态转换表!R8=1,$M7&amp;"+","")</f>
-        <v/>
+        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~reset+</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="55"/>
-      <c r="B8" s="59" t="str">
+      <c r="A8" s="51"/>
+      <c r="B8" s="55" t="str">
         <f>IF(状态转换表!B9=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B9=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v>~S2&amp;</v>
       </c>
-      <c r="C8" s="59" t="str">
+      <c r="C8" s="55" t="str">
         <f>IF(状态转换表!C9=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C9=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v>S1&amp;</v>
       </c>
-      <c r="D8" s="60" t="str">
+      <c r="D8" s="56" t="str">
         <f>IF(状态转换表!D9=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D9=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v>~S0&amp;</v>
       </c>
-      <c r="E8" s="61" t="str">
+      <c r="E8" s="57" t="str">
         <f>IF(状态转换表!F9&lt;&gt;"",IF(状态转换表!F9=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F9=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v>~start&amp;</v>
       </c>
-      <c r="F8" s="59" t="str">
+      <c r="F8" s="55" t="str">
         <f>IF(状态转换表!G9&lt;&gt;"",IF(状态转换表!G9=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G9=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v>stop&amp;</v>
-      </c>
-      <c r="G8" s="59" t="str">
+        <v>~stop&amp;</v>
+      </c>
+      <c r="G8" s="55" t="str">
         <f>IF(状态转换表!H9&lt;&gt;"",IF(状态转换表!H9=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H9=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v>~store&amp;</v>
-      </c>
-      <c r="H8" s="59" t="str">
+        <v/>
+      </c>
+      <c r="H8" s="55" t="str">
         <f>IF(状态转换表!I9&lt;&gt;"",IF(状态转换表!I9=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I9=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v>~reset&amp;</v>
       </c>
-      <c r="I8" s="59" t="str">
+      <c r="I8" s="55" t="str">
         <f>IF(状态转换表!J9&lt;&gt;"",IF(状态转换表!J9=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J9=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J8" s="59" t="str">
+      <c r="J8" s="55" t="str">
         <f>IF(状态转换表!K9&lt;&gt;"",IF(状态转换表!K9=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K9=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K8" s="59" t="str">
+      <c r="K8" s="55" t="str">
         <f>IF(状态转换表!L9&lt;&gt;"",IF(状态转换表!L9=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L9=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L8" s="70" t="str">
+      <c r="L8" s="66" t="str">
         <f>IF(状态转换表!M9&lt;&gt;"",IF(状态转换表!M9=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M9=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M8" s="69" t="str">
+      <c r="M8" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~store&amp;~reset</v>
+        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;~reset</v>
       </c>
       <c r="N8" s="19" t="str">
         <f>IF(状态转换表!O9=1,$M8&amp;"+","")</f>
@@ -3986,62 +3900,62 @@
       </c>
       <c r="P8" s="19" t="str">
         <f>IF(状态转换表!Q9=1,$M8&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~store&amp;~reset+</v>
+        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;~reset+</v>
       </c>
       <c r="Q8" s="19" t="str">
         <f>IF(状态转换表!R9=1,$M8&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~store&amp;~reset+</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="55"/>
-      <c r="B9" s="59" t="str">
+      <c r="A9" s="51"/>
+      <c r="B9" s="55" t="str">
         <f>IF(状态转换表!B10=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B10=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v>~S2&amp;</v>
       </c>
-      <c r="C9" s="59" t="str">
+      <c r="C9" s="55" t="str">
         <f>IF(状态转换表!C10=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C10=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v>S1&amp;</v>
       </c>
-      <c r="D9" s="60" t="str">
+      <c r="D9" s="56" t="str">
         <f>IF(状态转换表!D10=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D10=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v>~S0&amp;</v>
-      </c>
-      <c r="E9" s="61" t="str">
+        <v>S0&amp;</v>
+      </c>
+      <c r="E9" s="57" t="str">
         <f>IF(状态转换表!F10&lt;&gt;"",IF(状态转换表!F10=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F10=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v>~start&amp;</v>
-      </c>
-      <c r="F9" s="59" t="str">
+        <v>start&amp;</v>
+      </c>
+      <c r="F9" s="55" t="str">
         <f>IF(状态转换表!G10&lt;&gt;"",IF(状态转换表!G10=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G10=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v>~stop&amp;</v>
       </c>
-      <c r="G9" s="59" t="str">
+      <c r="G9" s="55" t="str">
         <f>IF(状态转换表!H10&lt;&gt;"",IF(状态转换表!H10=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H10=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v>store&amp;</v>
-      </c>
-      <c r="H9" s="59" t="str">
+        <v/>
+      </c>
+      <c r="H9" s="55" t="str">
         <f>IF(状态转换表!I10&lt;&gt;"",IF(状态转换表!I10=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I10=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v>~reset&amp;</v>
       </c>
-      <c r="I9" s="59" t="str">
+      <c r="I9" s="55" t="str">
         <f>IF(状态转换表!J10&lt;&gt;"",IF(状态转换表!J10=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J10=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J9" s="59" t="str">
+      <c r="J9" s="55" t="str">
         <f>IF(状态转换表!K10&lt;&gt;"",IF(状态转换表!K10=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K10=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K9" s="59" t="str">
+      <c r="K9" s="55" t="str">
         <f>IF(状态转换表!L10&lt;&gt;"",IF(状态转换表!L10=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L10=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L9" s="70" t="str">
+      <c r="L9" s="66" t="str">
         <f>IF(状态转换表!M10&lt;&gt;"",IF(状态转换表!M10=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M10=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M9" s="69" t="str">
+      <c r="M9" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;store&amp;~reset</v>
+        <v>~S2&amp;S1&amp;S0&amp;start&amp;~stop&amp;~reset</v>
       </c>
       <c r="N9" s="19" t="str">
         <f>IF(状态转换表!O10=1,$M9&amp;"+","")</f>
@@ -4053,62 +3967,62 @@
       </c>
       <c r="P9" s="19" t="str">
         <f>IF(状态转换表!Q10=1,$M9&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;store&amp;~reset+</v>
+        <v/>
       </c>
       <c r="Q9" s="19" t="str">
         <f>IF(状态转换表!R10=1,$M9&amp;"+","")</f>
-        <v/>
+        <v>~S2&amp;S1&amp;S0&amp;start&amp;~stop&amp;~reset+</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="55"/>
-      <c r="B10" s="59" t="str">
+      <c r="A10" s="51"/>
+      <c r="B10" s="55" t="str">
         <f>IF(状态转换表!B11=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B11=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v>~S2&amp;</v>
       </c>
-      <c r="C10" s="59" t="str">
+      <c r="C10" s="55" t="str">
         <f>IF(状态转换表!C11=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C11=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v>S1&amp;</v>
       </c>
-      <c r="D10" s="60" t="str">
+      <c r="D10" s="56" t="str">
         <f>IF(状态转换表!D11=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D11=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v>S0&amp;</v>
       </c>
-      <c r="E10" s="61" t="str">
+      <c r="E10" s="57" t="str">
         <f>IF(状态转换表!F11&lt;&gt;"",IF(状态转换表!F11=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F11=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v>start&amp;</v>
-      </c>
-      <c r="F10" s="59" t="str">
+        <v>~start&amp;</v>
+      </c>
+      <c r="F10" s="55" t="str">
         <f>IF(状态转换表!G11&lt;&gt;"",IF(状态转换表!G11=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G11=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v>~stop&amp;</v>
-      </c>
-      <c r="G10" s="59" t="str">
+        <v>stop&amp;</v>
+      </c>
+      <c r="G10" s="55" t="str">
         <f>IF(状态转换表!H11&lt;&gt;"",IF(状态转换表!H11=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H11=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v>~store&amp;</v>
-      </c>
-      <c r="H10" s="59" t="str">
+        <v/>
+      </c>
+      <c r="H10" s="55" t="str">
         <f>IF(状态转换表!I11&lt;&gt;"",IF(状态转换表!I11=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I11=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v>~reset&amp;</v>
       </c>
-      <c r="I10" s="59" t="str">
+      <c r="I10" s="55" t="str">
         <f>IF(状态转换表!J11&lt;&gt;"",IF(状态转换表!J11=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J11=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J10" s="59" t="str">
+      <c r="J10" s="55" t="str">
         <f>IF(状态转换表!K11&lt;&gt;"",IF(状态转换表!K11=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K11=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K10" s="59" t="str">
+      <c r="K10" s="55" t="str">
         <f>IF(状态转换表!L11&lt;&gt;"",IF(状态转换表!L11=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L11=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L10" s="70" t="str">
+      <c r="L10" s="66" t="str">
         <f>IF(状态转换表!M11&lt;&gt;"",IF(状态转换表!M11=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M11=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M10" s="69" t="str">
+      <c r="M10" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset</v>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~reset</v>
       </c>
       <c r="N10" s="19" t="str">
         <f>IF(状态转换表!O11=1,$M10&amp;"+","")</f>
@@ -4120,62 +4034,62 @@
       </c>
       <c r="P10" s="19" t="str">
         <f>IF(状态转换表!Q11=1,$M10&amp;"+","")</f>
-        <v/>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~reset+</v>
       </c>
       <c r="Q10" s="19" t="str">
         <f>IF(状态转换表!R11=1,$M10&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset+</v>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~reset+</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="55"/>
-      <c r="B11" s="59" t="str">
+      <c r="A11" s="51"/>
+      <c r="B11" s="55" t="str">
         <f>IF(状态转换表!B12=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B12=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v>~S2&amp;</v>
       </c>
-      <c r="C11" s="59" t="str">
+      <c r="C11" s="55" t="str">
         <f>IF(状态转换表!C12=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C12=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v>S1&amp;</v>
       </c>
-      <c r="D11" s="60" t="str">
+      <c r="D11" s="56" t="str">
         <f>IF(状态转换表!D12=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D12=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v>S0&amp;</v>
       </c>
-      <c r="E11" s="61" t="str">
+      <c r="E11" s="57" t="str">
         <f>IF(状态转换表!F12&lt;&gt;"",IF(状态转换表!F12=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F12=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v>~start&amp;</v>
       </c>
-      <c r="F11" s="59" t="str">
+      <c r="F11" s="55" t="str">
         <f>IF(状态转换表!G12&lt;&gt;"",IF(状态转换表!G12=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G12=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v>stop&amp;</v>
-      </c>
-      <c r="G11" s="59" t="str">
+        <v>~stop&amp;</v>
+      </c>
+      <c r="G11" s="55" t="str">
         <f>IF(状态转换表!H12&lt;&gt;"",IF(状态转换表!H12=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H12=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v>~store&amp;</v>
-      </c>
-      <c r="H11" s="59" t="str">
+        <v>store&amp;</v>
+      </c>
+      <c r="H11" s="55" t="str">
         <f>IF(状态转换表!I12&lt;&gt;"",IF(状态转换表!I12=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I12=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v>~reset&amp;</v>
       </c>
-      <c r="I11" s="59" t="str">
+      <c r="I11" s="55" t="str">
         <f>IF(状态转换表!J12&lt;&gt;"",IF(状态转换表!J12=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J12=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
-        <v/>
-      </c>
-      <c r="J11" s="59" t="str">
+        <v>NewRecord&amp;</v>
+      </c>
+      <c r="J11" s="55" t="str">
         <f>IF(状态转换表!K12&lt;&gt;"",IF(状态转换表!K12=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K12=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K11" s="59" t="str">
+      <c r="K11" s="55" t="str">
         <f>IF(状态转换表!L12&lt;&gt;"",IF(状态转换表!L12=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L12=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L11" s="70" t="str">
+      <c r="L11" s="66" t="str">
         <f>IF(状态转换表!M12&lt;&gt;"",IF(状态转换表!M12=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M12=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M11" s="69" t="str">
+      <c r="M11" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset</v>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;NewRecord</v>
       </c>
       <c r="N11" s="19" t="str">
         <f>IF(状态转换表!O12=1,$M11&amp;"+","")</f>
@@ -4183,66 +4097,66 @@
       </c>
       <c r="O11" s="19" t="str">
         <f>IF(状态转换表!P12=1,$M11&amp;"+","")</f>
-        <v/>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;NewRecord+</v>
       </c>
       <c r="P11" s="19" t="str">
         <f>IF(状态转换表!Q12=1,$M11&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+</v>
+        <v/>
       </c>
       <c r="Q11" s="19" t="str">
         <f>IF(状态转换表!R12=1,$M11&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="55"/>
-      <c r="B12" s="59" t="str">
+      <c r="A12" s="51"/>
+      <c r="B12" s="55" t="str">
         <f>IF(状态转换表!B13=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B13=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v>~S2&amp;</v>
       </c>
-      <c r="C12" s="59" t="str">
+      <c r="C12" s="55" t="str">
         <f>IF(状态转换表!C13=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C13=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v>S1&amp;</v>
       </c>
-      <c r="D12" s="60" t="str">
+      <c r="D12" s="56" t="str">
         <f>IF(状态转换表!D13=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D13=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v>S0&amp;</v>
       </c>
-      <c r="E12" s="61" t="str">
+      <c r="E12" s="57" t="str">
         <f>IF(状态转换表!F13&lt;&gt;"",IF(状态转换表!F13=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F13=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v>~start&amp;</v>
       </c>
-      <c r="F12" s="59" t="str">
+      <c r="F12" s="55" t="str">
         <f>IF(状态转换表!G13&lt;&gt;"",IF(状态转换表!G13=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G13=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v>~stop&amp;</v>
       </c>
-      <c r="G12" s="59" t="str">
+      <c r="G12" s="55" t="str">
         <f>IF(状态转换表!H13&lt;&gt;"",IF(状态转换表!H13=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H13=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v>store&amp;</v>
       </c>
-      <c r="H12" s="59" t="str">
+      <c r="H12" s="55" t="str">
         <f>IF(状态转换表!I13&lt;&gt;"",IF(状态转换表!I13=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I13=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v>~reset&amp;</v>
       </c>
-      <c r="I12" s="59" t="str">
+      <c r="I12" s="55" t="str">
         <f>IF(状态转换表!J13&lt;&gt;"",IF(状态转换表!J13=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J13=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
-        <v>NewRecord&amp;</v>
-      </c>
-      <c r="J12" s="59" t="str">
+        <v>~NewRecord&amp;</v>
+      </c>
+      <c r="J12" s="55" t="str">
         <f>IF(状态转换表!K13&lt;&gt;"",IF(状态转换表!K13=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K13=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K12" s="59" t="str">
+      <c r="K12" s="55" t="str">
         <f>IF(状态转换表!L13&lt;&gt;"",IF(状态转换表!L13=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L13=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L12" s="70" t="str">
+      <c r="L12" s="66" t="str">
         <f>IF(状态转换表!M13&lt;&gt;"",IF(状态转换表!M13=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M13=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M12" s="69" t="str">
+      <c r="M12" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;NewRecord</v>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord</v>
       </c>
       <c r="N12" s="19" t="str">
         <f>IF(状态转换表!O13=1,$M12&amp;"+","")</f>
@@ -4250,7 +4164,7 @@
       </c>
       <c r="O12" s="19" t="str">
         <f>IF(状态转换表!P13=1,$M12&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;NewRecord+</v>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+</v>
       </c>
       <c r="P12" s="19" t="str">
         <f>IF(状态转换表!Q13=1,$M12&amp;"+","")</f>
@@ -4258,58 +4172,58 @@
       </c>
       <c r="Q12" s="19" t="str">
         <f>IF(状态转换表!R13=1,$M12&amp;"+","")</f>
-        <v/>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="55"/>
-      <c r="B13" s="59" t="str">
+      <c r="A13" s="51"/>
+      <c r="B13" s="55" t="str">
         <f>IF(状态转换表!B14=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B14=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v>~S2&amp;</v>
-      </c>
-      <c r="C13" s="59" t="str">
+        <v>S2&amp;</v>
+      </c>
+      <c r="C13" s="55" t="str">
         <f>IF(状态转换表!C14=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C14=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v>S1&amp;</v>
-      </c>
-      <c r="D13" s="60" t="str">
+        <v>~S1&amp;</v>
+      </c>
+      <c r="D13" s="56" t="str">
         <f>IF(状态转换表!D14=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D14=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v>S0&amp;</v>
-      </c>
-      <c r="E13" s="61" t="str">
+        <v>~S0&amp;</v>
+      </c>
+      <c r="E13" s="57" t="str">
         <f>IF(状态转换表!F14&lt;&gt;"",IF(状态转换表!F14=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F14=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v>~start&amp;</v>
-      </c>
-      <c r="F13" s="59" t="str">
+        <v/>
+      </c>
+      <c r="F13" s="55" t="str">
         <f>IF(状态转换表!G14&lt;&gt;"",IF(状态转换表!G14=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G14=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v>~stop&amp;</v>
-      </c>
-      <c r="G13" s="59" t="str">
+        <v/>
+      </c>
+      <c r="G13" s="55" t="str">
         <f>IF(状态转换表!H14&lt;&gt;"",IF(状态转换表!H14=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H14=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v>store&amp;</v>
-      </c>
-      <c r="H13" s="59" t="str">
+        <v/>
+      </c>
+      <c r="H13" s="55" t="str">
         <f>IF(状态转换表!I14&lt;&gt;"",IF(状态转换表!I14=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I14=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v>~reset&amp;</v>
       </c>
-      <c r="I13" s="59" t="str">
+      <c r="I13" s="55" t="str">
         <f>IF(状态转换表!J14&lt;&gt;"",IF(状态转换表!J14=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J14=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
-        <v>~NewRecord&amp;</v>
-      </c>
-      <c r="J13" s="59" t="str">
+        <v/>
+      </c>
+      <c r="J13" s="55" t="str">
         <f>IF(状态转换表!K14&lt;&gt;"",IF(状态转换表!K14=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K14=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K13" s="59" t="str">
+      <c r="K13" s="55" t="str">
         <f>IF(状态转换表!L14&lt;&gt;"",IF(状态转换表!L14=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L14=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L13" s="70" t="str">
+      <c r="L13" s="66" t="str">
         <f>IF(状态转换表!M14&lt;&gt;"",IF(状态转换表!M14=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M14=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M13" s="69" t="str">
+      <c r="M13" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord</v>
+        <v>S2&amp;~S1&amp;~S0&amp;~reset</v>
       </c>
       <c r="N13" s="19" t="str">
         <f>IF(状态转换表!O14=1,$M13&amp;"+","")</f>
@@ -4317,7 +4231,7 @@
       </c>
       <c r="O13" s="19" t="str">
         <f>IF(状态转换表!P14=1,$M13&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+</v>
+        <v>S2&amp;~S1&amp;~S0&amp;~reset+</v>
       </c>
       <c r="P13" s="19" t="str">
         <f>IF(状态转换表!Q14=1,$M13&amp;"+","")</f>
@@ -4325,58 +4239,58 @@
       </c>
       <c r="Q13" s="19" t="str">
         <f>IF(状态转换表!R14=1,$M13&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+</v>
+        <v>S2&amp;~S1&amp;~S0&amp;~reset+</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="55"/>
-      <c r="B14" s="59" t="str">
+      <c r="A14" s="51"/>
+      <c r="B14" s="55" t="str">
         <f>IF(状态转换表!B15=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B15=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v>S2&amp;</v>
       </c>
-      <c r="C14" s="59" t="str">
+      <c r="C14" s="55" t="str">
         <f>IF(状态转换表!C15=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C15=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v>~S1&amp;</v>
       </c>
-      <c r="D14" s="60" t="str">
+      <c r="D14" s="56" t="str">
         <f>IF(状态转换表!D15=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D15=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v>~S0&amp;</v>
-      </c>
-      <c r="E14" s="61" t="str">
+        <v>S0&amp;</v>
+      </c>
+      <c r="E14" s="57" t="str">
         <f>IF(状态转换表!F15&lt;&gt;"",IF(状态转换表!F15=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F15=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v/>
-      </c>
-      <c r="F14" s="59" t="str">
+        <v>start&amp;</v>
+      </c>
+      <c r="F14" s="55" t="str">
         <f>IF(状态转换表!G15&lt;&gt;"",IF(状态转换表!G15=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G15=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v/>
-      </c>
-      <c r="G14" s="59" t="str">
+        <v>~stop&amp;</v>
+      </c>
+      <c r="G14" s="55" t="str">
         <f>IF(状态转换表!H15&lt;&gt;"",IF(状态转换表!H15=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H15=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H14" s="59" t="str">
+      <c r="H14" s="55" t="str">
         <f>IF(状态转换表!I15&lt;&gt;"",IF(状态转换表!I15=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I15=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v>~reset&amp;</v>
       </c>
-      <c r="I14" s="59" t="str">
+      <c r="I14" s="55" t="str">
         <f>IF(状态转换表!J15&lt;&gt;"",IF(状态转换表!J15=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J15=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J14" s="59" t="str">
+      <c r="J14" s="55" t="str">
         <f>IF(状态转换表!K15&lt;&gt;"",IF(状态转换表!K15=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K15=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K14" s="59" t="str">
+      <c r="K14" s="55" t="str">
         <f>IF(状态转换表!L15&lt;&gt;"",IF(状态转换表!L15=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L15=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L14" s="70" t="str">
+      <c r="L14" s="66" t="str">
         <f>IF(状态转换表!M15&lt;&gt;"",IF(状态转换表!M15=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M15=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M14" s="69" t="str">
+      <c r="M14" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>S2&amp;~S1&amp;~S0&amp;~reset</v>
+        <v>S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~reset</v>
       </c>
       <c r="N14" s="19" t="str">
         <f>IF(状态转换表!O15=1,$M14&amp;"+","")</f>
@@ -4384,7 +4298,7 @@
       </c>
       <c r="O14" s="19" t="str">
         <f>IF(状态转换表!P15=1,$M14&amp;"+","")</f>
-        <v>S2&amp;~S1&amp;~S0&amp;~reset+</v>
+        <v/>
       </c>
       <c r="P14" s="19" t="str">
         <f>IF(状态转换表!Q15=1,$M14&amp;"+","")</f>
@@ -4392,58 +4306,58 @@
       </c>
       <c r="Q14" s="19" t="str">
         <f>IF(状态转换表!R15=1,$M14&amp;"+","")</f>
-        <v>S2&amp;~S1&amp;~S0&amp;~reset+</v>
+        <v>S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~reset+</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="55"/>
-      <c r="B15" s="59" t="str">
+      <c r="A15" s="51"/>
+      <c r="B15" s="55" t="str">
         <f>IF(状态转换表!B16=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B16=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v>S2&amp;</v>
       </c>
-      <c r="C15" s="59" t="str">
+      <c r="C15" s="55" t="str">
         <f>IF(状态转换表!C16=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C16=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v>~S1&amp;</v>
       </c>
-      <c r="D15" s="60" t="str">
+      <c r="D15" s="56" t="str">
         <f>IF(状态转换表!D16=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D16=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v>S0&amp;</v>
       </c>
-      <c r="E15" s="61" t="str">
+      <c r="E15" s="57" t="str">
         <f>IF(状态转换表!F16&lt;&gt;"",IF(状态转换表!F16=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F16=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v>start&amp;</v>
-      </c>
-      <c r="F15" s="59" t="str">
+        <v>~start&amp;</v>
+      </c>
+      <c r="F15" s="55" t="str">
         <f>IF(状态转换表!G16&lt;&gt;"",IF(状态转换表!G16=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G16=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v>~stop&amp;</v>
-      </c>
-      <c r="G15" s="59" t="str">
+        <v/>
+      </c>
+      <c r="G15" s="55" t="str">
         <f>IF(状态转换表!H16&lt;&gt;"",IF(状态转换表!H16=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H16=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v>~store&amp;</v>
-      </c>
-      <c r="H15" s="59" t="str">
+        <v/>
+      </c>
+      <c r="H15" s="55" t="str">
         <f>IF(状态转换表!I16&lt;&gt;"",IF(状态转换表!I16=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I16=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v>~reset&amp;</v>
       </c>
-      <c r="I15" s="59" t="str">
+      <c r="I15" s="55" t="str">
         <f>IF(状态转换表!J16&lt;&gt;"",IF(状态转换表!J16=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J16=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J15" s="59" t="str">
+      <c r="J15" s="55" t="str">
         <f>IF(状态转换表!K16&lt;&gt;"",IF(状态转换表!K16=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K16=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K15" s="59" t="str">
+      <c r="K15" s="55" t="str">
         <f>IF(状态转换表!L16&lt;&gt;"",IF(状态转换表!L16=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L16=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L15" s="70" t="str">
+      <c r="L15" s="66" t="str">
         <f>IF(状态转换表!M16&lt;&gt;"",IF(状态转换表!M16=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M16=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M15" s="69" t="str">
+      <c r="M15" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset</v>
+        <v>S2&amp;~S1&amp;S0&amp;~start&amp;~reset</v>
       </c>
       <c r="N15" s="19" t="str">
         <f>IF(状态转换表!O16=1,$M15&amp;"+","")</f>
@@ -4451,7 +4365,7 @@
       </c>
       <c r="O15" s="19" t="str">
         <f>IF(状态转换表!P16=1,$M15&amp;"+","")</f>
-        <v/>
+        <v>S2&amp;~S1&amp;S0&amp;~start&amp;~reset+</v>
       </c>
       <c r="P15" s="19" t="str">
         <f>IF(状态转换表!Q16=1,$M15&amp;"+","")</f>
@@ -4459,58 +4373,58 @@
       </c>
       <c r="Q15" s="19" t="str">
         <f>IF(状态转换表!R16=1,$M15&amp;"+","")</f>
-        <v>S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset+</v>
+        <v>S2&amp;~S1&amp;S0&amp;~start&amp;~reset+</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="55"/>
-      <c r="B16" s="59" t="str">
+      <c r="A16" s="51"/>
+      <c r="B16" s="55" t="str">
         <f>IF(状态转换表!B17=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B17=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v>S2&amp;</v>
-      </c>
-      <c r="C16" s="59" t="str">
+        <v>~S2&amp;</v>
+      </c>
+      <c r="C16" s="55" t="str">
         <f>IF(状态转换表!C17=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C17=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v>~S1&amp;</v>
-      </c>
-      <c r="D16" s="60" t="str">
+        <v>S1&amp;</v>
+      </c>
+      <c r="D16" s="56" t="str">
         <f>IF(状态转换表!D17=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D17=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v>S0&amp;</v>
       </c>
-      <c r="E16" s="61" t="str">
+      <c r="E16" s="57" t="str">
         <f>IF(状态转换表!F17&lt;&gt;"",IF(状态转换表!F17=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F17=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v>~start&amp;</v>
       </c>
-      <c r="F16" s="59" t="str">
+      <c r="F16" s="55" t="str">
         <f>IF(状态转换表!G17&lt;&gt;"",IF(状态转换表!G17=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G17=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v>stop&amp;</v>
-      </c>
-      <c r="G16" s="59" t="str">
+        <v>~stop&amp;</v>
+      </c>
+      <c r="G16" s="55" t="str">
         <f>IF(状态转换表!H17&lt;&gt;"",IF(状态转换表!H17=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H17=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v>~store&amp;</v>
       </c>
-      <c r="H16" s="59" t="str">
+      <c r="H16" s="55" t="str">
         <f>IF(状态转换表!I17&lt;&gt;"",IF(状态转换表!I17=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I17=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v>~reset&amp;</v>
       </c>
-      <c r="I16" s="59" t="str">
+      <c r="I16" s="55" t="str">
         <f>IF(状态转换表!J17&lt;&gt;"",IF(状态转换表!J17=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J17=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J16" s="59" t="str">
+      <c r="J16" s="55" t="str">
         <f>IF(状态转换表!K17&lt;&gt;"",IF(状态转换表!K17=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K17=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K16" s="59" t="str">
+      <c r="K16" s="55" t="str">
         <f>IF(状态转换表!L17&lt;&gt;"",IF(状态转换表!L17=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L17=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L16" s="70" t="str">
+      <c r="L16" s="66" t="str">
         <f>IF(状态转换表!M17&lt;&gt;"",IF(状态转换表!M17=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M17=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M16" s="69" t="str">
+      <c r="M16" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset</v>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset</v>
       </c>
       <c r="N16" s="19" t="str">
         <f>IF(状态转换表!O17=1,$M16&amp;"+","")</f>
@@ -4518,66 +4432,66 @@
       </c>
       <c r="O16" s="19" t="str">
         <f>IF(状态转换表!P17=1,$M16&amp;"+","")</f>
-        <v>S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+</v>
+        <v/>
       </c>
       <c r="P16" s="19" t="str">
         <f>IF(状态转换表!Q17=1,$M16&amp;"+","")</f>
-        <v/>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
       </c>
       <c r="Q16" s="19" t="str">
         <f>IF(状态转换表!R17=1,$M16&amp;"+","")</f>
-        <v>S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+</v>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="55"/>
-      <c r="B17" s="59" t="str">
+      <c r="A17" s="51"/>
+      <c r="B17" s="55" t="str">
         <f>IF(状态转换表!B18=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B18=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v>S2&amp;</v>
-      </c>
-      <c r="C17" s="59" t="str">
+        <v/>
+      </c>
+      <c r="C17" s="55" t="str">
         <f>IF(状态转换表!C18=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C18=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v>~S1&amp;</v>
-      </c>
-      <c r="D17" s="60" t="str">
+        <v/>
+      </c>
+      <c r="D17" s="56" t="str">
         <f>IF(状态转换表!D18=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D18=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v>S0&amp;</v>
-      </c>
-      <c r="E17" s="61" t="str">
+        <v/>
+      </c>
+      <c r="E17" s="57" t="str">
         <f>IF(状态转换表!F18&lt;&gt;"",IF(状态转换表!F18=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F18=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v>~start&amp;</v>
-      </c>
-      <c r="F17" s="59" t="str">
+        <v/>
+      </c>
+      <c r="F17" s="55" t="str">
         <f>IF(状态转换表!G18&lt;&gt;"",IF(状态转换表!G18=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G18=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v>~stop&amp;</v>
-      </c>
-      <c r="G17" s="59" t="str">
+        <v/>
+      </c>
+      <c r="G17" s="55" t="str">
         <f>IF(状态转换表!H18&lt;&gt;"",IF(状态转换表!H18=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H18=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v>store&amp;</v>
-      </c>
-      <c r="H17" s="59" t="str">
+        <v/>
+      </c>
+      <c r="H17" s="55" t="str">
         <f>IF(状态转换表!I18&lt;&gt;"",IF(状态转换表!I18=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I18=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
-        <v>~reset&amp;</v>
-      </c>
-      <c r="I17" s="59" t="str">
+        <v/>
+      </c>
+      <c r="I17" s="55" t="str">
         <f>IF(状态转换表!J18&lt;&gt;"",IF(状态转换表!J18=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J18=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J17" s="59" t="str">
+      <c r="J17" s="55" t="str">
         <f>IF(状态转换表!K18&lt;&gt;"",IF(状态转换表!K18=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K18=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K17" s="59" t="str">
+      <c r="K17" s="55" t="str">
         <f>IF(状态转换表!L18&lt;&gt;"",IF(状态转换表!L18=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L18=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L17" s="70" t="str">
+      <c r="L17" s="66" t="str">
         <f>IF(状态转换表!M18&lt;&gt;"",IF(状态转换表!M18=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M18=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M17" s="69" t="str">
+      <c r="M17" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset</v>
+        <v/>
       </c>
       <c r="N17" s="19" t="str">
         <f>IF(状态转换表!O18=1,$M17&amp;"+","")</f>
@@ -4585,7 +4499,7 @@
       </c>
       <c r="O17" s="19" t="str">
         <f>IF(状态转换表!P18=1,$M17&amp;"+","")</f>
-        <v>S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset+</v>
+        <v/>
       </c>
       <c r="P17" s="19" t="str">
         <f>IF(状态转换表!Q18=1,$M17&amp;"+","")</f>
@@ -4593,58 +4507,58 @@
       </c>
       <c r="Q17" s="19" t="str">
         <f>IF(状态转换表!R18=1,$M17&amp;"+","")</f>
-        <v>S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset+</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="55"/>
-      <c r="B18" s="59" t="str">
+      <c r="A18" s="51"/>
+      <c r="B18" s="55" t="str">
         <f>IF(状态转换表!B19=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B19=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v>~S2&amp;</v>
-      </c>
-      <c r="C18" s="59" t="str">
+        <v/>
+      </c>
+      <c r="C18" s="55" t="str">
         <f>IF(状态转换表!C19=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C19=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v>~S1&amp;</v>
-      </c>
-      <c r="D18" s="60" t="str">
+        <v/>
+      </c>
+      <c r="D18" s="56" t="str">
         <f>IF(状态转换表!D19=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D19=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v>S0&amp;</v>
-      </c>
-      <c r="E18" s="61" t="str">
+        <v/>
+      </c>
+      <c r="E18" s="57" t="str">
         <f>IF(状态转换表!F19&lt;&gt;"",IF(状态转换表!F19=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F19=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v>~start&amp;</v>
-      </c>
-      <c r="F18" s="59" t="str">
+        <v/>
+      </c>
+      <c r="F18" s="55" t="str">
         <f>IF(状态转换表!G19&lt;&gt;"",IF(状态转换表!G19=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G19=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v>~stop&amp;</v>
-      </c>
-      <c r="G18" s="59" t="str">
+        <v/>
+      </c>
+      <c r="G18" s="55" t="str">
         <f>IF(状态转换表!H19&lt;&gt;"",IF(状态转换表!H19=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H19=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v>~store&amp;</v>
-      </c>
-      <c r="H18" s="59" t="str">
+        <v/>
+      </c>
+      <c r="H18" s="55" t="str">
         <f>IF(状态转换表!I19&lt;&gt;"",IF(状态转换表!I19=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I19=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
-        <v>~reset&amp;</v>
-      </c>
-      <c r="I18" s="59" t="str">
+        <v/>
+      </c>
+      <c r="I18" s="55" t="str">
         <f>IF(状态转换表!J19&lt;&gt;"",IF(状态转换表!J19=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J19=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J18" s="59" t="str">
+      <c r="J18" s="55" t="str">
         <f>IF(状态转换表!K19&lt;&gt;"",IF(状态转换表!K19=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K19=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K18" s="59" t="str">
+      <c r="K18" s="55" t="str">
         <f>IF(状态转换表!L19&lt;&gt;"",IF(状态转换表!L19=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L19=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L18" s="70" t="str">
+      <c r="L18" s="66" t="str">
         <f>IF(状态转换表!M19&lt;&gt;"",IF(状态转换表!M19=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M19=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M18" s="69" t="str">
+      <c r="M18" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset</v>
+        <v/>
       </c>
       <c r="N18" s="19" t="str">
         <f>IF(状态转换表!O19=1,$M18&amp;"+","")</f>
@@ -4660,58 +4574,58 @@
       </c>
       <c r="Q18" s="19" t="str">
         <f>IF(状态转换表!R19=1,$M18&amp;"+","")</f>
-        <v>~S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="55"/>
-      <c r="B19" s="59" t="str">
+      <c r="A19" s="51"/>
+      <c r="B19" s="55" t="str">
         <f>IF(状态转换表!B20=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B20=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v>~S2&amp;</v>
-      </c>
-      <c r="C19" s="59" t="str">
+        <v/>
+      </c>
+      <c r="C19" s="55" t="str">
         <f>IF(状态转换表!C20=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C20=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v>S1&amp;</v>
-      </c>
-      <c r="D19" s="60" t="str">
+        <v/>
+      </c>
+      <c r="D19" s="56" t="str">
         <f>IF(状态转换表!D20=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D20=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v>~S0&amp;</v>
-      </c>
-      <c r="E19" s="61" t="str">
+        <v/>
+      </c>
+      <c r="E19" s="57" t="str">
         <f>IF(状态转换表!F20&lt;&gt;"",IF(状态转换表!F20=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F20=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v>~start&amp;</v>
-      </c>
-      <c r="F19" s="59" t="str">
+        <v/>
+      </c>
+      <c r="F19" s="55" t="str">
         <f>IF(状态转换表!G20&lt;&gt;"",IF(状态转换表!G20=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G20=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v>~stop&amp;</v>
-      </c>
-      <c r="G19" s="59" t="str">
+        <v/>
+      </c>
+      <c r="G19" s="55" t="str">
         <f>IF(状态转换表!H20&lt;&gt;"",IF(状态转换表!H20=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H20=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v>~store&amp;</v>
-      </c>
-      <c r="H19" s="59" t="str">
+        <v/>
+      </c>
+      <c r="H19" s="55" t="str">
         <f>IF(状态转换表!I20&lt;&gt;"",IF(状态转换表!I20=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I20=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
-        <v>~reset&amp;</v>
-      </c>
-      <c r="I19" s="59" t="str">
+        <v/>
+      </c>
+      <c r="I19" s="55" t="str">
         <f>IF(状态转换表!J20&lt;&gt;"",IF(状态转换表!J20=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J20=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J19" s="59" t="str">
+      <c r="J19" s="55" t="str">
         <f>IF(状态转换表!K20&lt;&gt;"",IF(状态转换表!K20=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K20=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K19" s="59" t="str">
+      <c r="K19" s="55" t="str">
         <f>IF(状态转换表!L20&lt;&gt;"",IF(状态转换表!L20=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L20=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L19" s="70" t="str">
+      <c r="L19" s="66" t="str">
         <f>IF(状态转换表!M20&lt;&gt;"",IF(状态转换表!M20=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M20=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M19" s="69" t="str">
+      <c r="M19" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;~store&amp;~reset</v>
+        <v/>
       </c>
       <c r="N19" s="19" t="str">
         <f>IF(状态转换表!O20=1,$M19&amp;"+","")</f>
@@ -4723,7 +4637,7 @@
       </c>
       <c r="P19" s="19" t="str">
         <f>IF(状态转换表!Q20=1,$M19&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
+        <v/>
       </c>
       <c r="Q19" s="19" t="str">
         <f>IF(状态转换表!R20=1,$M19&amp;"+","")</f>
@@ -4731,54 +4645,54 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="55"/>
-      <c r="B20" s="59" t="str">
+      <c r="A20" s="51"/>
+      <c r="B20" s="55" t="str">
         <f>IF(状态转换表!B21=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B21=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v>~S2&amp;</v>
-      </c>
-      <c r="C20" s="59" t="str">
+        <v/>
+      </c>
+      <c r="C20" s="55" t="str">
         <f>IF(状态转换表!C21=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C21=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v>S1&amp;</v>
-      </c>
-      <c r="D20" s="60" t="str">
+        <v/>
+      </c>
+      <c r="D20" s="56" t="str">
         <f>IF(状态转换表!D21=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D21=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v>S0&amp;</v>
-      </c>
-      <c r="E20" s="61" t="str">
+        <v/>
+      </c>
+      <c r="E20" s="57" t="str">
         <f>IF(状态转换表!F21&lt;&gt;"",IF(状态转换表!F21=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F21=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v>~start&amp;</v>
-      </c>
-      <c r="F20" s="59" t="str">
+        <v/>
+      </c>
+      <c r="F20" s="55" t="str">
         <f>IF(状态转换表!G21&lt;&gt;"",IF(状态转换表!G21=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G21=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v>~stop&amp;</v>
-      </c>
-      <c r="G20" s="59" t="str">
+        <v/>
+      </c>
+      <c r="G20" s="55" t="str">
         <f>IF(状态转换表!H21&lt;&gt;"",IF(状态转换表!H21=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H21=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v>~store&amp;</v>
-      </c>
-      <c r="H20" s="59" t="str">
+        <v/>
+      </c>
+      <c r="H20" s="55" t="str">
         <f>IF(状态转换表!I21&lt;&gt;"",IF(状态转换表!I21=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I21=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
-        <v>~reset&amp;</v>
-      </c>
-      <c r="I20" s="59" t="str">
+        <v/>
+      </c>
+      <c r="I20" s="55" t="str">
         <f>IF(状态转换表!J21&lt;&gt;"",IF(状态转换表!J21=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J21=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J20" s="59" t="str">
+      <c r="J20" s="55" t="str">
         <f>IF(状态转换表!K21&lt;&gt;"",IF(状态转换表!K21=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K21=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K20" s="59" t="str">
+      <c r="K20" s="55" t="str">
         <f>IF(状态转换表!L21&lt;&gt;"",IF(状态转换表!L21=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L21=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L20" s="70" t="str">
+      <c r="L20" s="66" t="str">
         <f>IF(状态转换表!M21&lt;&gt;"",IF(状态转换表!M21=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M21=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M20" s="69" t="str">
+      <c r="M20" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset</v>
+        <v/>
       </c>
       <c r="N20" s="19" t="str">
         <f>IF(状态转换表!O21=1,$M20&amp;"+","")</f>
@@ -4790,62 +4704,62 @@
       </c>
       <c r="P20" s="19" t="str">
         <f>IF(状态转换表!Q21=1,$M20&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
+        <v/>
       </c>
       <c r="Q20" s="19" t="str">
         <f>IF(状态转换表!R21=1,$M20&amp;"+","")</f>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="55"/>
-      <c r="B21" s="59" t="str">
+      <c r="A21" s="51"/>
+      <c r="B21" s="55" t="str">
         <f>IF(状态转换表!B22=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B22=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v>S2&amp;</v>
-      </c>
-      <c r="C21" s="59" t="str">
+        <v/>
+      </c>
+      <c r="C21" s="55" t="str">
         <f>IF(状态转换表!C22=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C22=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v>~S1&amp;</v>
-      </c>
-      <c r="D21" s="60" t="str">
+        <v/>
+      </c>
+      <c r="D21" s="56" t="str">
         <f>IF(状态转换表!D22=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D22=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v>S0&amp;</v>
-      </c>
-      <c r="E21" s="61" t="str">
+        <v/>
+      </c>
+      <c r="E21" s="57" t="str">
         <f>IF(状态转换表!F22&lt;&gt;"",IF(状态转换表!F22=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F22=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
-        <v>~start&amp;</v>
-      </c>
-      <c r="F21" s="59" t="str">
+        <v/>
+      </c>
+      <c r="F21" s="55" t="str">
         <f>IF(状态转换表!G22&lt;&gt;"",IF(状态转换表!G22=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G22=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
-        <v>~stop&amp;</v>
-      </c>
-      <c r="G21" s="59" t="str">
+        <v/>
+      </c>
+      <c r="G21" s="55" t="str">
         <f>IF(状态转换表!H22&lt;&gt;"",IF(状态转换表!H22=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H22=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v>~store&amp;</v>
-      </c>
-      <c r="H21" s="59" t="str">
+        <v/>
+      </c>
+      <c r="H21" s="55" t="str">
         <f>IF(状态转换表!I22&lt;&gt;"",IF(状态转换表!I22=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I22=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
-        <v>~reset&amp;</v>
-      </c>
-      <c r="I21" s="59" t="str">
+        <v/>
+      </c>
+      <c r="I21" s="55" t="str">
         <f>IF(状态转换表!J22&lt;&gt;"",IF(状态转换表!J22=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J22=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J21" s="59" t="str">
+      <c r="J21" s="55" t="str">
         <f>IF(状态转换表!K22&lt;&gt;"",IF(状态转换表!K22=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K22=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K21" s="59" t="str">
+      <c r="K21" s="55" t="str">
         <f>IF(状态转换表!L22&lt;&gt;"",IF(状态转换表!L22=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L22=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L21" s="70" t="str">
+      <c r="L21" s="66" t="str">
         <f>IF(状态转换表!M22&lt;&gt;"",IF(状态转换表!M22=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M22=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M21" s="69" t="str">
+      <c r="M21" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset</v>
+        <v/>
       </c>
       <c r="N21" s="19" t="str">
         <f>IF(状态转换表!O22=1,$M21&amp;"+","")</f>
@@ -4853,7 +4767,7 @@
       </c>
       <c r="O21" s="19" t="str">
         <f>IF(状态转换表!P22=1,$M21&amp;"+","")</f>
-        <v>S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
+        <v/>
       </c>
       <c r="P21" s="19" t="str">
         <f>IF(状态转换表!Q22=1,$M21&amp;"+","")</f>
@@ -4861,56 +4775,56 @@
       </c>
       <c r="Q21" s="19" t="str">
         <f>IF(状态转换表!R22=1,$M21&amp;"+","")</f>
-        <v>S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="55"/>
-      <c r="B22" s="59" t="str">
+      <c r="A22" s="51"/>
+      <c r="B22" s="55" t="str">
         <f>IF(状态转换表!B23=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B23=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C22" s="59" t="str">
+      <c r="C22" s="55" t="str">
         <f>IF(状态转换表!C23=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C23=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D22" s="60" t="str">
+      <c r="D22" s="56" t="str">
         <f>IF(状态转换表!D23=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D23=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E22" s="61" t="str">
+      <c r="E22" s="57" t="str">
         <f>IF(状态转换表!F23&lt;&gt;"",IF(状态转换表!F23=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F23=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F22" s="59" t="str">
+      <c r="F22" s="55" t="str">
         <f>IF(状态转换表!G23&lt;&gt;"",IF(状态转换表!G23=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G23=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G22" s="59" t="str">
+      <c r="G22" s="55" t="str">
         <f>IF(状态转换表!H23&lt;&gt;"",IF(状态转换表!H23=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H23=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H22" s="59" t="str">
+      <c r="H22" s="55" t="str">
         <f>IF(状态转换表!I23&lt;&gt;"",IF(状态转换表!I23=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I23=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I22" s="59" t="str">
+      <c r="I22" s="55" t="str">
         <f>IF(状态转换表!J23&lt;&gt;"",IF(状态转换表!J23=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J23=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J22" s="59" t="str">
+      <c r="J22" s="55" t="str">
         <f>IF(状态转换表!K23&lt;&gt;"",IF(状态转换表!K23=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K23=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K22" s="59" t="str">
+      <c r="K22" s="55" t="str">
         <f>IF(状态转换表!L23&lt;&gt;"",IF(状态转换表!L23=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L23=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L22" s="70" t="str">
+      <c r="L22" s="66" t="str">
         <f>IF(状态转换表!M23&lt;&gt;"",IF(状态转换表!M23=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M23=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M22" s="69" t="str">
+      <c r="M22" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4932,55 +4846,55 @@
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="55" t="str">
+      <c r="A23" s="51" t="str">
         <f>IF(状态转换表!A24=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A24=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B23" s="59" t="str">
+      <c r="B23" s="55" t="str">
         <f>IF(状态转换表!B24=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B24=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C23" s="59" t="str">
+      <c r="C23" s="55" t="str">
         <f>IF(状态转换表!C24=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C24=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D23" s="60" t="str">
+      <c r="D23" s="56" t="str">
         <f>IF(状态转换表!D24=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D24=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E23" s="61" t="str">
+      <c r="E23" s="57" t="str">
         <f>IF(状态转换表!F24&lt;&gt;"",IF(状态转换表!F24=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F24=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F23" s="59" t="str">
+      <c r="F23" s="55" t="str">
         <f>IF(状态转换表!G24&lt;&gt;"",IF(状态转换表!G24=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G24=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G23" s="59" t="str">
+      <c r="G23" s="55" t="str">
         <f>IF(状态转换表!H24&lt;&gt;"",IF(状态转换表!H24=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H24=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H23" s="59" t="str">
+      <c r="H23" s="55" t="str">
         <f>IF(状态转换表!I24&lt;&gt;"",IF(状态转换表!I24=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I24=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I23" s="59" t="str">
+      <c r="I23" s="55" t="str">
         <f>IF(状态转换表!J24&lt;&gt;"",IF(状态转换表!J24=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J24=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J23" s="59" t="str">
+      <c r="J23" s="55" t="str">
         <f>IF(状态转换表!K24&lt;&gt;"",IF(状态转换表!K24=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K24=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K23" s="59" t="str">
+      <c r="K23" s="55" t="str">
         <f>IF(状态转换表!L24&lt;&gt;"",IF(状态转换表!L24=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L24=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L23" s="70" t="str">
+      <c r="L23" s="66" t="str">
         <f>IF(状态转换表!M24&lt;&gt;"",IF(状态转换表!M24=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M24=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M23" s="69" t="str">
+      <c r="M23" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5002,55 +4916,55 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="55" t="str">
+      <c r="A24" s="51" t="str">
         <f>IF(状态转换表!A25=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A25=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B24" s="59" t="str">
+      <c r="B24" s="55" t="str">
         <f>IF(状态转换表!B25=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B25=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C24" s="59" t="str">
+      <c r="C24" s="55" t="str">
         <f>IF(状态转换表!C25=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C25=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D24" s="60" t="str">
+      <c r="D24" s="56" t="str">
         <f>IF(状态转换表!D25=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D25=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E24" s="61" t="str">
+      <c r="E24" s="57" t="str">
         <f>IF(状态转换表!F25&lt;&gt;"",IF(状态转换表!F25=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F25=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F24" s="59" t="str">
+      <c r="F24" s="55" t="str">
         <f>IF(状态转换表!G25&lt;&gt;"",IF(状态转换表!G25=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G25=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G24" s="59" t="str">
+      <c r="G24" s="55" t="str">
         <f>IF(状态转换表!H25&lt;&gt;"",IF(状态转换表!H25=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H25=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H24" s="59" t="str">
+      <c r="H24" s="55" t="str">
         <f>IF(状态转换表!I25&lt;&gt;"",IF(状态转换表!I25=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I25=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I24" s="59" t="str">
+      <c r="I24" s="55" t="str">
         <f>IF(状态转换表!J25&lt;&gt;"",IF(状态转换表!J25=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J25=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J24" s="59" t="str">
+      <c r="J24" s="55" t="str">
         <f>IF(状态转换表!K25&lt;&gt;"",IF(状态转换表!K25=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K25=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K24" s="59" t="str">
+      <c r="K24" s="55" t="str">
         <f>IF(状态转换表!L25&lt;&gt;"",IF(状态转换表!L25=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L25=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L24" s="70" t="str">
+      <c r="L24" s="66" t="str">
         <f>IF(状态转换表!M25&lt;&gt;"",IF(状态转换表!M25=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M25=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M24" s="69" t="str">
+      <c r="M24" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5072,55 +4986,55 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="55" t="str">
+      <c r="A25" s="51" t="str">
         <f>IF(状态转换表!A26=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A26=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B25" s="59" t="str">
+      <c r="B25" s="55" t="str">
         <f>IF(状态转换表!B26=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B26=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C25" s="59" t="str">
+      <c r="C25" s="55" t="str">
         <f>IF(状态转换表!C26=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C26=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D25" s="60" t="str">
+      <c r="D25" s="56" t="str">
         <f>IF(状态转换表!D26=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D26=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E25" s="61" t="str">
+      <c r="E25" s="57" t="str">
         <f>IF(状态转换表!F26&lt;&gt;"",IF(状态转换表!F26=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F26=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F25" s="59" t="str">
+      <c r="F25" s="55" t="str">
         <f>IF(状态转换表!G26&lt;&gt;"",IF(状态转换表!G26=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G26=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G25" s="59" t="str">
+      <c r="G25" s="55" t="str">
         <f>IF(状态转换表!H26&lt;&gt;"",IF(状态转换表!H26=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H26=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H25" s="59" t="str">
+      <c r="H25" s="55" t="str">
         <f>IF(状态转换表!I26&lt;&gt;"",IF(状态转换表!I26=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I26=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I25" s="59" t="str">
+      <c r="I25" s="55" t="str">
         <f>IF(状态转换表!J26&lt;&gt;"",IF(状态转换表!J26=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J26=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J25" s="59" t="str">
+      <c r="J25" s="55" t="str">
         <f>IF(状态转换表!K26&lt;&gt;"",IF(状态转换表!K26=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K26=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K25" s="59" t="str">
+      <c r="K25" s="55" t="str">
         <f>IF(状态转换表!L26&lt;&gt;"",IF(状态转换表!L26=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L26=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L25" s="70" t="str">
+      <c r="L25" s="66" t="str">
         <f>IF(状态转换表!M26&lt;&gt;"",IF(状态转换表!M26=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M26=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M25" s="69" t="str">
+      <c r="M25" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5142,55 +5056,55 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="55" t="str">
+      <c r="A26" s="51" t="str">
         <f>IF(状态转换表!A27=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A27=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B26" s="59" t="str">
+      <c r="B26" s="55" t="str">
         <f>IF(状态转换表!B27=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B27=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C26" s="59" t="str">
+      <c r="C26" s="55" t="str">
         <f>IF(状态转换表!C27=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C27=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D26" s="60" t="str">
+      <c r="D26" s="56" t="str">
         <f>IF(状态转换表!D27=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D27=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E26" s="61" t="str">
+      <c r="E26" s="57" t="str">
         <f>IF(状态转换表!F27&lt;&gt;"",IF(状态转换表!F27=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F27=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F26" s="59" t="str">
+      <c r="F26" s="55" t="str">
         <f>IF(状态转换表!G27&lt;&gt;"",IF(状态转换表!G27=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G27=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G26" s="59" t="str">
+      <c r="G26" s="55" t="str">
         <f>IF(状态转换表!H27&lt;&gt;"",IF(状态转换表!H27=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H27=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H26" s="59" t="str">
+      <c r="H26" s="55" t="str">
         <f>IF(状态转换表!I27&lt;&gt;"",IF(状态转换表!I27=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I27=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I26" s="59" t="str">
+      <c r="I26" s="55" t="str">
         <f>IF(状态转换表!J27&lt;&gt;"",IF(状态转换表!J27=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J27=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J26" s="59" t="str">
+      <c r="J26" s="55" t="str">
         <f>IF(状态转换表!K27&lt;&gt;"",IF(状态转换表!K27=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K27=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K26" s="59" t="str">
+      <c r="K26" s="55" t="str">
         <f>IF(状态转换表!L27&lt;&gt;"",IF(状态转换表!L27=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L27=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L26" s="70" t="str">
+      <c r="L26" s="66" t="str">
         <f>IF(状态转换表!M27&lt;&gt;"",IF(状态转换表!M27=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M27=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M26" s="69" t="str">
+      <c r="M26" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5212,55 +5126,55 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="55" t="str">
+      <c r="A27" s="51" t="str">
         <f>IF(状态转换表!A28=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A28=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B27" s="59" t="str">
+      <c r="B27" s="55" t="str">
         <f>IF(状态转换表!B28=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B28=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C27" s="59" t="str">
+      <c r="C27" s="55" t="str">
         <f>IF(状态转换表!C28=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C28=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D27" s="60" t="str">
+      <c r="D27" s="56" t="str">
         <f>IF(状态转换表!D28=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D28=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E27" s="61" t="str">
+      <c r="E27" s="57" t="str">
         <f>IF(状态转换表!F28&lt;&gt;"",IF(状态转换表!F28=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F28=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F27" s="59" t="str">
+      <c r="F27" s="55" t="str">
         <f>IF(状态转换表!G28&lt;&gt;"",IF(状态转换表!G28=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G28=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G27" s="59" t="str">
+      <c r="G27" s="55" t="str">
         <f>IF(状态转换表!H28&lt;&gt;"",IF(状态转换表!H28=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H28=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H27" s="59" t="str">
+      <c r="H27" s="55" t="str">
         <f>IF(状态转换表!I28&lt;&gt;"",IF(状态转换表!I28=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I28=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I27" s="59" t="str">
+      <c r="I27" s="55" t="str">
         <f>IF(状态转换表!J28&lt;&gt;"",IF(状态转换表!J28=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J28=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J27" s="59" t="str">
+      <c r="J27" s="55" t="str">
         <f>IF(状态转换表!K28&lt;&gt;"",IF(状态转换表!K28=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K28=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K27" s="59" t="str">
+      <c r="K27" s="55" t="str">
         <f>IF(状态转换表!L28&lt;&gt;"",IF(状态转换表!L28=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L28=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L27" s="70" t="str">
+      <c r="L27" s="66" t="str">
         <f>IF(状态转换表!M28&lt;&gt;"",IF(状态转换表!M28=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M28=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M27" s="69" t="str">
+      <c r="M27" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5282,55 +5196,55 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="55" t="str">
+      <c r="A28" s="51" t="str">
         <f>IF(状态转换表!A29=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A29=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B28" s="59" t="str">
+      <c r="B28" s="55" t="str">
         <f>IF(状态转换表!B29=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B29=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C28" s="59" t="str">
+      <c r="C28" s="55" t="str">
         <f>IF(状态转换表!C29=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C29=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D28" s="60" t="str">
+      <c r="D28" s="56" t="str">
         <f>IF(状态转换表!D29=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D29=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E28" s="61" t="str">
+      <c r="E28" s="57" t="str">
         <f>IF(状态转换表!F29&lt;&gt;"",IF(状态转换表!F29=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F29=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F28" s="59" t="str">
+      <c r="F28" s="55" t="str">
         <f>IF(状态转换表!G29&lt;&gt;"",IF(状态转换表!G29=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G29=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G28" s="59" t="str">
+      <c r="G28" s="55" t="str">
         <f>IF(状态转换表!H29&lt;&gt;"",IF(状态转换表!H29=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H29=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H28" s="59" t="str">
+      <c r="H28" s="55" t="str">
         <f>IF(状态转换表!I29&lt;&gt;"",IF(状态转换表!I29=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I29=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I28" s="59" t="str">
+      <c r="I28" s="55" t="str">
         <f>IF(状态转换表!J29&lt;&gt;"",IF(状态转换表!J29=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J29=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J28" s="59" t="str">
+      <c r="J28" s="55" t="str">
         <f>IF(状态转换表!K29&lt;&gt;"",IF(状态转换表!K29=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K29=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K28" s="59" t="str">
+      <c r="K28" s="55" t="str">
         <f>IF(状态转换表!L29&lt;&gt;"",IF(状态转换表!L29=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L29=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L28" s="70" t="str">
+      <c r="L28" s="66" t="str">
         <f>IF(状态转换表!M29&lt;&gt;"",IF(状态转换表!M29=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M29=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M28" s="69" t="str">
+      <c r="M28" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5352,55 +5266,55 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="55" t="str">
+      <c r="A29" s="51" t="str">
         <f>IF(状态转换表!A30=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A30=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B29" s="59" t="str">
+      <c r="B29" s="55" t="str">
         <f>IF(状态转换表!B30=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B30=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C29" s="59" t="str">
+      <c r="C29" s="55" t="str">
         <f>IF(状态转换表!C30=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C30=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D29" s="60" t="str">
+      <c r="D29" s="56" t="str">
         <f>IF(状态转换表!D30=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D30=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E29" s="61" t="str">
+      <c r="E29" s="57" t="str">
         <f>IF(状态转换表!F30&lt;&gt;"",IF(状态转换表!F30=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F30=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F29" s="59" t="str">
+      <c r="F29" s="55" t="str">
         <f>IF(状态转换表!G30&lt;&gt;"",IF(状态转换表!G30=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G30=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G29" s="59" t="str">
+      <c r="G29" s="55" t="str">
         <f>IF(状态转换表!H30&lt;&gt;"",IF(状态转换表!H30=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H30=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H29" s="59" t="str">
+      <c r="H29" s="55" t="str">
         <f>IF(状态转换表!I30&lt;&gt;"",IF(状态转换表!I30=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I30=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I29" s="59" t="str">
+      <c r="I29" s="55" t="str">
         <f>IF(状态转换表!J30&lt;&gt;"",IF(状态转换表!J30=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J30=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J29" s="59" t="str">
+      <c r="J29" s="55" t="str">
         <f>IF(状态转换表!K30&lt;&gt;"",IF(状态转换表!K30=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K30=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K29" s="59" t="str">
+      <c r="K29" s="55" t="str">
         <f>IF(状态转换表!L30&lt;&gt;"",IF(状态转换表!L30=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L30=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L29" s="70" t="str">
+      <c r="L29" s="66" t="str">
         <f>IF(状态转换表!M30&lt;&gt;"",IF(状态转换表!M30=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M30=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M29" s="69" t="str">
+      <c r="M29" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5422,55 +5336,55 @@
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="55" t="str">
+      <c r="A30" s="51" t="str">
         <f>IF(状态转换表!A31=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A31=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B30" s="62" t="str">
+      <c r="B30" s="58" t="str">
         <f>IF(状态转换表!B31=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B31=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C30" s="62" t="str">
+      <c r="C30" s="58" t="str">
         <f>IF(状态转换表!C31=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C31=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D30" s="63" t="str">
+      <c r="D30" s="59" t="str">
         <f>IF(状态转换表!D31=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D31=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E30" s="61" t="str">
+      <c r="E30" s="57" t="str">
         <f>IF(状态转换表!F31&lt;&gt;"",IF(状态转换表!F31=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F31=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F30" s="59" t="str">
+      <c r="F30" s="55" t="str">
         <f>IF(状态转换表!G31&lt;&gt;"",IF(状态转换表!G31=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G31=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G30" s="59" t="str">
+      <c r="G30" s="55" t="str">
         <f>IF(状态转换表!H31&lt;&gt;"",IF(状态转换表!H31=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H31=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H30" s="59" t="str">
+      <c r="H30" s="55" t="str">
         <f>IF(状态转换表!I31&lt;&gt;"",IF(状态转换表!I31=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I31=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I30" s="59" t="str">
+      <c r="I30" s="55" t="str">
         <f>IF(状态转换表!J31&lt;&gt;"",IF(状态转换表!J31=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J31=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J30" s="59" t="str">
+      <c r="J30" s="55" t="str">
         <f>IF(状态转换表!K31&lt;&gt;"",IF(状态转换表!K31=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K31=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K30" s="59" t="str">
+      <c r="K30" s="55" t="str">
         <f>IF(状态转换表!L31&lt;&gt;"",IF(状态转换表!L31=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L31=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L30" s="70" t="str">
+      <c r="L30" s="66" t="str">
         <f>IF(状态转换表!M31&lt;&gt;"",IF(状态转换表!M31=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M31=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M30" s="69" t="str">
+      <c r="M30" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5492,81 +5406,81 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="17">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="93"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="88"/>
       <c r="N31" s="22" t="str">
         <f>IF(LEN(N32)&gt;1,LEFT(N32,LEN(N32)-1),"")</f>
         <v/>
       </c>
       <c r="O31" s="22" t="str">
         <f>IF(LEN(O32)&gt;1,LEFT(O32,LEN(O32)-1),"")</f>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;NewRecord+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+S2&amp;~S1&amp;~S0&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset</v>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;NewRecord+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+S2&amp;~S1&amp;~S0&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~reset</v>
       </c>
       <c r="P31" s="22" t="str">
         <f>IF(LEN(P32)&gt;1,LEFT(P32,LEN(P32)-1),"")</f>
-        <v>~S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset+~S2&amp;S1&amp;~S0&amp;start&amp;~stop&amp;~store&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~store&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;store&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;~store&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset</v>
+        <v>~S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~reset+~S2&amp;S1&amp;~S0&amp;start&amp;~stop&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset</v>
       </c>
       <c r="Q31" s="24" t="str">
         <f>IF(LEN(Q32)&gt;1,LEFT(Q32,LEN(Q32)-1),"")</f>
-        <v>~S2&amp;~S1&amp;~S0&amp;~reset+~S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+~S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~store&amp;~reset+~S2&amp;S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+S2&amp;~S1&amp;~S0&amp;~reset+S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset+~S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset</v>
+        <v>~S2&amp;~S1&amp;~S0&amp;~reset+~S2&amp;~S1&amp;S0&amp;~start&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~reset+~S2&amp;S1&amp;S0&amp;start&amp;~stop&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+S2&amp;~S1&amp;~S0&amp;~reset+S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="17.25" hidden="1" customHeight="1">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="71"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="67"/>
       <c r="N32" s="23" t="str">
         <f>CONCATENATE(N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19,N20,N21,N22,N23,N24,N25,N26,N27,N28,N29,N30)</f>
         <v/>
       </c>
       <c r="O32" s="23" t="str">
         <f t="shared" ref="O32:Q32" si="1">CONCATENATE(O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30)</f>
-        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;NewRecord+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+S2&amp;~S1&amp;~S0&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
+        <v>~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;NewRecord+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+S2&amp;~S1&amp;~S0&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~reset+</v>
       </c>
       <c r="P32" s="23" t="str">
         <f t="shared" ref="P32" si="2">CONCATENATE(P2,P3,P4,P5,P6,P7,P8,P9,P10,P11,P12,P13,P14,P15,P16,P17,P18,P19,P20,P21,P22,P23,P24,P25,P26,P27,P28,P29,P30)</f>
-        <v>~S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset+~S2&amp;S1&amp;~S0&amp;start&amp;~stop&amp;~store&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~store&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;store&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;~store&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
+        <v>~S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~reset+~S2&amp;S1&amp;~S0&amp;start&amp;~stop&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;~stop&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
       </c>
       <c r="Q32" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>~S2&amp;~S1&amp;~S0&amp;~reset+~S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+~S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~store&amp;~reset+~S2&amp;S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+S2&amp;~S1&amp;~S0&amp;~reset+S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~store&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;stop&amp;~store&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset+~S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
+        <v>~S2&amp;~S1&amp;~S0&amp;~reset+~S2&amp;~S1&amp;S0&amp;~start&amp;~reset+~S2&amp;S1&amp;~S0&amp;~start&amp;stop&amp;~reset+~S2&amp;S1&amp;S0&amp;start&amp;~stop&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;stop&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;store&amp;~reset&amp;~NewRecord+S2&amp;~S1&amp;~S0&amp;~reset+S2&amp;~S1&amp;S0&amp;start&amp;~stop&amp;~reset+S2&amp;~S1&amp;S0&amp;~start&amp;~reset+~S2&amp;S1&amp;S0&amp;~start&amp;~stop&amp;~store&amp;~reset+</v>
       </c>
     </row>
     <row r="34" spans="3:15" ht="17">
-      <c r="E34" s="94" t="s">
+      <c r="E34" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
     </row>
     <row r="35" spans="3:15" ht="17">
       <c r="C35" s="14" t="s">
@@ -5581,10 +5495,9 @@
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
-      <c r="M35" s="72"/>
     </row>
     <row r="36" spans="3:15" ht="17">
-      <c r="O36" s="25" t="s">
+      <c r="O36" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5625,1292 +5538,1289 @@
   </sheetPr>
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="3.6640625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="27" customWidth="1"/>
-    <col min="6" max="13" width="5.6640625" style="27" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="26" customWidth="1"/>
-    <col min="15" max="16" width="8.6640625" style="26" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" style="27" customWidth="1"/>
-    <col min="18" max="23" width="8.6640625" style="26" customWidth="1"/>
-    <col min="24" max="25" width="8.6640625" style="27" customWidth="1"/>
+    <col min="1" max="4" width="3.6640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="25" customWidth="1"/>
+    <col min="6" max="13" width="5.6640625" style="25" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="25" customWidth="1"/>
+    <col min="15" max="25" width="8.6640625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17">
-      <c r="A1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84" t="s">
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="96" t="s">
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
     </row>
     <row r="2" spans="1:25" ht="30" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="44" t="s">
+      <c r="T2" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="44" t="s">
+      <c r="U2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="44" t="s">
+      <c r="W2" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="44" t="s">
+      <c r="X2" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="44" t="s">
+      <c r="Y2" s="40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="17">
-      <c r="A3" s="32">
+      <c r="A3" s="30">
         <f>IF(ISNUMBER($E3),IF(MOD($E3,16)/8&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="30">
         <f>IF(ISNUMBER($E3),IF(MOD($E3,8)/4&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="30">
         <f>IF(ISNUMBER($E3),IF(MOD($E3,4)/2&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="30">
         <f>IF(ISNUMBER($E3),MOD($E3,2),"")</f>
         <v>0</v>
       </c>
-      <c r="E3" s="34">
-        <v>0</v>
-      </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36">
+      <c r="E3" s="31">
+        <v>0</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33">
         <v>1</v>
       </c>
-      <c r="P3" s="36">
+      <c r="P3" s="33">
         <v>1</v>
       </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36">
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33">
         <v>1</v>
       </c>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
     </row>
     <row r="4" spans="1:25" ht="17">
-      <c r="A4" s="37">
+      <c r="A4" s="34">
         <f t="shared" ref="A4:A31" si="0">IF(ISNUMBER($E4),IF(MOD($E4,16)/8&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="34">
         <f t="shared" ref="B4:B31" si="1">IF(ISNUMBER($E4),IF(MOD($E4,8)/4&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="34">
         <f t="shared" ref="C4:C31" si="2">IF(ISNUMBER($E4),IF(MOD($E4,4)/2&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="34">
         <f t="shared" ref="D4:D31" si="3">IF(ISNUMBER($E4),MOD($E4,2),"")</f>
         <v>1</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="35">
         <v>1</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41">
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37">
         <v>1</v>
       </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41">
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37">
         <v>1</v>
       </c>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
     </row>
     <row r="5" spans="1:25" ht="17">
-      <c r="A5" s="33">
+      <c r="A5" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="31">
         <v>2</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48">
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44">
         <v>1</v>
       </c>
-      <c r="Q5" s="48">
+      <c r="Q5" s="44">
         <v>1</v>
       </c>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
     </row>
     <row r="6" spans="1:25" ht="17">
-      <c r="A6" s="37">
+      <c r="A6" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="34">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="35">
         <v>3</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41">
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37">
         <v>1</v>
       </c>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
     </row>
     <row r="7" spans="1:25" ht="17">
-      <c r="A7" s="33">
+      <c r="A7" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="31">
         <v>4</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="47">
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="43">
         <v>1</v>
       </c>
-      <c r="O7" s="48">
+      <c r="O7" s="44">
         <v>1</v>
       </c>
-      <c r="P7" s="48">
+      <c r="P7" s="44">
         <v>1</v>
       </c>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
     </row>
     <row r="8" spans="1:25" ht="17">
-      <c r="A8" s="37">
+      <c r="A8" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="34">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="35">
         <v>5</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
     </row>
     <row r="9" spans="1:25" ht="17">
-      <c r="A9" s="32" t="str">
+      <c r="A9" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B9" s="32" t="str">
+      <c r="B9" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C9" s="32" t="str">
+      <c r="C9" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D9" s="33" t="str">
+      <c r="D9" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
     </row>
     <row r="10" spans="1:25" ht="17">
-      <c r="A10" s="37" t="str">
+      <c r="A10" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B10" s="37" t="str">
+      <c r="B10" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C10" s="37" t="str">
+      <c r="C10" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D10" s="38" t="str">
+      <c r="D10" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
     </row>
     <row r="11" spans="1:25" ht="17">
-      <c r="A11" s="32" t="str">
+      <c r="A11" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B11" s="32" t="str">
+      <c r="B11" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C11" s="32" t="str">
+      <c r="C11" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D11" s="33" t="str">
+      <c r="D11" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
     </row>
     <row r="12" spans="1:25" ht="17">
-      <c r="A12" s="37" t="str">
+      <c r="A12" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B12" s="37" t="str">
+      <c r="B12" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C12" s="37" t="str">
+      <c r="C12" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D12" s="38" t="str">
+      <c r="D12" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
     </row>
     <row r="13" spans="1:25" ht="17">
-      <c r="A13" s="32" t="str">
+      <c r="A13" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B13" s="32" t="str">
+      <c r="B13" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C13" s="32" t="str">
+      <c r="C13" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D13" s="33" t="str">
+      <c r="D13" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
     </row>
     <row r="14" spans="1:25" ht="17">
-      <c r="A14" s="37" t="str">
+      <c r="A14" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B14" s="37" t="str">
+      <c r="B14" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C14" s="37" t="str">
+      <c r="C14" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D14" s="38" t="str">
+      <c r="D14" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
     </row>
     <row r="15" spans="1:25" ht="17">
-      <c r="A15" s="32" t="str">
+      <c r="A15" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B15" s="32" t="str">
+      <c r="B15" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C15" s="32" t="str">
+      <c r="C15" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D15" s="33" t="str">
+      <c r="D15" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
     </row>
     <row r="16" spans="1:25" ht="17">
-      <c r="A16" s="37" t="str">
+      <c r="A16" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B16" s="37" t="str">
+      <c r="B16" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C16" s="37" t="str">
+      <c r="C16" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D16" s="38" t="str">
+      <c r="D16" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
     </row>
     <row r="17" spans="1:25" ht="17">
-      <c r="A17" s="32" t="str">
+      <c r="A17" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B17" s="32" t="str">
+      <c r="B17" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C17" s="32" t="str">
+      <c r="C17" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D17" s="33" t="str">
+      <c r="D17" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
     </row>
     <row r="18" spans="1:25" ht="17">
-      <c r="A18" s="37" t="str">
+      <c r="A18" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B18" s="37" t="str">
+      <c r="B18" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C18" s="37" t="str">
+      <c r="C18" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D18" s="38" t="str">
+      <c r="D18" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
     </row>
     <row r="19" spans="1:25" ht="17">
-      <c r="A19" s="32" t="str">
+      <c r="A19" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B19" s="32" t="str">
+      <c r="B19" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C19" s="32" t="str">
+      <c r="C19" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D19" s="33" t="str">
+      <c r="D19" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
     </row>
     <row r="20" spans="1:25" ht="17">
-      <c r="A20" s="37" t="str">
+      <c r="A20" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B20" s="37" t="str">
+      <c r="B20" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C20" s="37" t="str">
+      <c r="C20" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D20" s="38" t="str">
+      <c r="D20" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
     </row>
     <row r="21" spans="1:25" ht="17">
-      <c r="A21" s="32" t="str">
+      <c r="A21" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B21" s="32" t="str">
+      <c r="B21" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C21" s="32" t="str">
+      <c r="C21" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D21" s="33" t="str">
+      <c r="D21" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
     </row>
     <row r="22" spans="1:25" ht="17">
-      <c r="A22" s="37" t="str">
+      <c r="A22" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B22" s="37" t="str">
+      <c r="B22" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C22" s="37" t="str">
+      <c r="C22" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D22" s="38" t="str">
+      <c r="D22" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
     </row>
     <row r="23" spans="1:25" ht="17">
-      <c r="A23" s="32" t="str">
+      <c r="A23" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B23" s="32" t="str">
+      <c r="B23" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C23" s="32" t="str">
+      <c r="C23" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D23" s="33" t="str">
+      <c r="D23" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
     </row>
     <row r="24" spans="1:25" ht="17">
-      <c r="A24" s="37" t="str">
+      <c r="A24" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B24" s="37" t="str">
+      <c r="B24" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C24" s="37" t="str">
+      <c r="C24" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D24" s="38" t="str">
+      <c r="D24" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
     </row>
     <row r="25" spans="1:25" ht="17">
-      <c r="A25" s="32" t="str">
+      <c r="A25" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B25" s="32" t="str">
+      <c r="B25" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C25" s="32" t="str">
+      <c r="C25" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D25" s="33" t="str">
+      <c r="D25" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
     </row>
     <row r="26" spans="1:25" ht="17">
-      <c r="A26" s="37" t="str">
+      <c r="A26" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B26" s="37" t="str">
+      <c r="B26" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C26" s="37" t="str">
+      <c r="C26" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D26" s="38" t="str">
+      <c r="D26" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
     </row>
     <row r="27" spans="1:25" ht="17">
-      <c r="A27" s="32" t="str">
+      <c r="A27" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B27" s="32" t="str">
+      <c r="B27" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C27" s="32" t="str">
+      <c r="C27" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D27" s="33" t="str">
+      <c r="D27" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
     </row>
     <row r="28" spans="1:25" ht="17">
-      <c r="A28" s="37" t="str">
+      <c r="A28" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B28" s="37" t="str">
+      <c r="B28" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C28" s="37" t="str">
+      <c r="C28" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D28" s="38" t="str">
+      <c r="D28" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
     </row>
     <row r="29" spans="1:25" ht="17">
-      <c r="A29" s="32" t="str">
+      <c r="A29" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B29" s="32" t="str">
+      <c r="B29" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C29" s="32" t="str">
+      <c r="C29" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D29" s="33" t="str">
+      <c r="D29" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
     </row>
     <row r="30" spans="1:25" ht="17">
-      <c r="A30" s="37" t="str">
+      <c r="A30" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B30" s="37" t="str">
+      <c r="B30" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C30" s="37" t="str">
+      <c r="C30" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D30" s="38" t="str">
+      <c r="D30" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
     </row>
     <row r="31" spans="1:25" ht="17">
-      <c r="A31" s="32" t="str">
+      <c r="A31" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B31" s="32" t="str">
+      <c r="B31" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C31" s="32" t="str">
+      <c r="C31" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D31" s="33" t="str">
+      <c r="D31" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
     </row>
     <row r="32" spans="1:25" ht="17">
-      <c r="F32" s="90" t="s">
+      <c r="F32" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -6976,8 +6886,8 @@
   </sheetPr>
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="211" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -10035,21 +9945,21 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="17">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="99"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="94"/>
       <c r="N31" s="21" t="str">
         <f t="shared" ref="N31:Y31" si="1">IF(LEN(N32)&gt;1,LEFT(N32,LEN(N32)-1),"")</f>
         <v>S2&amp;~S1&amp;~S0</v>
@@ -10168,20 +10078,20 @@
       </c>
     </row>
     <row r="37" spans="4:17" ht="17">
-      <c r="D37" s="94" t="s">
+      <c r="D37" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="94"/>
-      <c r="Q37" s="25" t="s">
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="89"/>
+      <c r="Q37" s="14" t="s">
         <v>33</v>
       </c>
     </row>
